--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="str">
-        <v>Invoiced</v>
+        <v>Paid</v>
       </c>
       <c r="J4" t="str">
         <v>Materials for outreach program</v>
@@ -578,7 +578,7 @@
         <v>2023-02-20</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>2025-04-24</v>
       </c>
       <c r="M4" t="str">
         <v>user</v>
@@ -772,7 +772,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,9 +864,67 @@
         <v>Created journal entry JE-20250424-003</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>AUDIT1745477662005</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C4" t="str">
+        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2025-04-24T06:54:22.005Z</v>
+      </c>
+      <c r="H4" t="str">
+        <v>{"before":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Invoiced","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"},"after":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Paid","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"2025-04-24","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"}}</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Updated Expense 7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>AUDIT1745477662005</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2025-04-24T06:54:22.005Z</v>
+      </c>
+      <c r="H5" t="str">
+        <v>{"before":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Invoiced","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"},"after":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Paid","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"2025-04-24","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"}}</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Updated Expense 7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -772,7 +772,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,9 +922,125 @@
         <v>Updated Expense 7776af38-6226-4f6a-9d0e-68a9a692852f</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AUDIT1745882670934</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-04-28T23:24:30.934Z</v>
+      </c>
+      <c r="H6" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:58.039Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"}}</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>AUDIT1745882670934</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2025-04-28T23:24:30.934Z</v>
+      </c>
+      <c r="H7" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:58.039Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"}}</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>AUDIT1745882681205</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-04-28T23:24:41.205Z</v>
+      </c>
+      <c r="H8" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:55:18.315Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"}}</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>AUDIT1745882681205</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2025-04-28T23:24:41.205Z</v>
+      </c>
+      <c r="H9" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:55:18.315Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"}}</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1550,11 +1666,14 @@
       <c r="E3" t="str">
         <v>user</v>
       </c>
+      <c r="F3" t="str">
+        <v>read,write</v>
+      </c>
       <c r="G3" t="str">
         <v>admin</v>
       </c>
       <c r="H3" t="str">
-        <v>2025-04-24T00:54:58.039Z</v>
+        <v>2025-04-28T23:24:30.933Z</v>
       </c>
       <c r="I3" t="str">
         <v>active</v>
@@ -1576,11 +1695,14 @@
       <c r="E4" t="str">
         <v>viewer</v>
       </c>
+      <c r="F4" t="str">
+        <v>read</v>
+      </c>
       <c r="G4" t="str">
         <v>admin</v>
       </c>
       <c r="H4" t="str">
-        <v>2025-04-24T00:55:18.315Z</v>
+        <v>2025-04-28T23:24:41.205Z</v>
       </c>
       <c r="I4" t="str">
         <v>active</v>

--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -820,7 +820,7 @@
       <c r="D10" t="str">
         <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="str">
         <v>700</v>
       </c>
       <c r="F10" t="str">
@@ -864,7 +864,7 @@
       <c r="D11" t="str">
         <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="str">
         <v>48</v>
       </c>
       <c r="F11" t="str">
@@ -904,7 +904,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1402,9 +1402,183 @@
         <v>Created new Expense</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>AUDIT1745902730091</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2025-04-29T04:58:50.091Z</v>
+      </c>
+      <c r="H18" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:41.829Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"}}</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>AUDIT1745902730091</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2025-04-29T04:58:50.091Z</v>
+      </c>
+      <c r="H19" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:41.829Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"}}</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>AUDIT1745902756302</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2025-04-29T04:59:16.302Z</v>
+      </c>
+      <c r="H20" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"}}</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>AUDIT1745902756302</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2025-04-29T04:59:16.302Z</v>
+      </c>
+      <c r="H21" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"}}</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>AUDIT1745902762458</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C22" t="str">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2025-04-29T04:59:22.458Z</v>
+      </c>
+      <c r="H22" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"}}</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>AUDIT1745902762458</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C23" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2025-04-29T04:59:22.458Z</v>
+      </c>
+      <c r="H23" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"}}</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I23"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2087,11 +2261,14 @@
       <c r="E2" t="str">
         <v>admin</v>
       </c>
+      <c r="F2" t="str">
+        <v>read,write,delete,admin</v>
+      </c>
       <c r="G2" t="str">
         <v>admin</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-04-24T00:54:41.829Z</v>
+        <v>2025-04-29T04:58:50.090Z</v>
       </c>
       <c r="I2" t="str">
         <v>active</v>
@@ -2113,11 +2290,14 @@
       <c r="E3" t="str">
         <v>user</v>
       </c>
+      <c r="F3" t="str">
+        <v>read,write,delete</v>
+      </c>
       <c r="G3" t="str">
         <v>admin</v>
       </c>
       <c r="H3" t="str">
-        <v>2025-04-28T23:24:30.933Z</v>
+        <v>2025-04-29T04:59:16.302Z</v>
       </c>
       <c r="I3" t="str">
         <v>active</v>
@@ -2139,11 +2319,14 @@
       <c r="E4" t="str">
         <v>viewer</v>
       </c>
+      <c r="F4" t="str">
+        <v>read</v>
+      </c>
       <c r="G4" t="str">
         <v>admin</v>
       </c>
       <c r="H4" t="str">
-        <v>2025-04-28T23:24:41.205Z</v>
+        <v>2025-04-29T04:59:22.458Z</v>
       </c>
       <c r="I4" t="str">
         <v>active</v>

--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\OneDrive\Documents\SWIN MIT\25 Sem1\ICT80004 Intership Project\Week8\kiosc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341923F-F83B-4AFA-9C39-D7D10C3590AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A49C5A8-B066-4814-844C-E8FE065C3C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="867">
   <si>
     <t>id</t>
   </si>
@@ -2033,6 +2033,603 @@
   </si>
   <si>
     <t>3D printer</t>
+  </si>
+  <si>
+    <t>a1c23d45-e67f-489a-bcde-f0123456789a</t>
+  </si>
+  <si>
+    <t>Lab Equipment</t>
+  </si>
+  <si>
+    <t>Annual lab equipment upgrade</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:30:00.000Z</t>
+  </si>
+  <si>
+    <t>b2d34e56-f78g-490b-cdef-g1234567890b</t>
+  </si>
+  <si>
+    <t>Cloud Services</t>
+  </si>
+  <si>
+    <t>AWS computing resources</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:31:00.000Z</t>
+  </si>
+  <si>
+    <t>c3e45f67-g89h-491c-defg-h2345678901c</t>
+  </si>
+  <si>
+    <t>Teaching Materials</t>
+  </si>
+  <si>
+    <t>Science curriculum materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:32:00.000Z</t>
+  </si>
+  <si>
+    <t>d4f56g78-h90i-492d-efgh-i3456789012d</t>
+  </si>
+  <si>
+    <t>Circuit boards and components</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:33:00.000Z</t>
+  </si>
+  <si>
+    <t>e5g67h89-i01j-493e-fghi-j4567890123e</t>
+  </si>
+  <si>
+    <t>Safety Equipment</t>
+  </si>
+  <si>
+    <t>Lab safety gear and PPE</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:34:00.000Z</t>
+  </si>
+  <si>
+    <t>f6h78i90-j12k-494f-ghij-k5678901234f</t>
+  </si>
+  <si>
+    <t>Annual software subscription</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:35:00.000Z</t>
+  </si>
+  <si>
+    <t>g7i89j01-k23l-495g-hijk-l6789012345g</t>
+  </si>
+  <si>
+    <t>Biology Supplies</t>
+  </si>
+  <si>
+    <t>Lab specimens and supplies</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:36:00.000Z</t>
+  </si>
+  <si>
+    <t>h8j90k12-l34m-496h-ijkl-m7890123456h</t>
+  </si>
+  <si>
+    <t>Grocery Items</t>
+  </si>
+  <si>
+    <t>Food for student event</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:37:00.000Z</t>
+  </si>
+  <si>
+    <t>i9k01l23-m45n-497i-jklm-n8901234567i</t>
+  </si>
+  <si>
+    <t>Gas Supplies</t>
+  </si>
+  <si>
+    <t>Laboratory gas refill</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:38:00.000Z</t>
+  </si>
+  <si>
+    <t>j0l12m34-n56o-498j-klmn-o9012345678j</t>
+  </si>
+  <si>
+    <t>Name Badges</t>
+  </si>
+  <si>
+    <t>Staff identification badges</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:39:00.000Z</t>
+  </si>
+  <si>
+    <t>k1m23n45-o67p-499k-lmno-p0123456789k</t>
+  </si>
+  <si>
+    <t>Equipment Service</t>
+  </si>
+  <si>
+    <t>Annual maintenance contract</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:40:00.000Z</t>
+  </si>
+  <si>
+    <t>l2n34o56-p78q-500l-mnop-q1234567890l</t>
+  </si>
+  <si>
+    <t>H2GP Materials</t>
+  </si>
+  <si>
+    <t>Hydrogen Grand Prix supplies</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:41:00.000Z</t>
+  </si>
+  <si>
+    <t>m3o45p67-q89r-501m-nopq-r2345678901m</t>
+  </si>
+  <si>
+    <t>Delivery Services</t>
+  </si>
+  <si>
+    <t>Urgent materials delivery</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:42:00.000Z</t>
+  </si>
+  <si>
+    <t>n4p56q78-r90s-502n-opqr-s3456789012n</t>
+  </si>
+  <si>
+    <t>Classroom Supplies</t>
+  </si>
+  <si>
+    <t>General teaching materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:43:00.000Z</t>
+  </si>
+  <si>
+    <t>o5q67r89-s01t-503o-pqrs-t4567890123o</t>
+  </si>
+  <si>
+    <t>Staff Reimbursement</t>
+  </si>
+  <si>
+    <t>Leanne salary payment</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:44:00.000Z</t>
+  </si>
+  <si>
+    <t>p6r78s90-t12u-504p-qrst-u5678901234p</t>
+  </si>
+  <si>
+    <t>Survey Platform</t>
+  </si>
+  <si>
+    <t>Annual subscription</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:45:00.000Z</t>
+  </si>
+  <si>
+    <t>q7s89t01-u23v-505q-rstu-v6789012345q</t>
+  </si>
+  <si>
+    <t>Classroom Materials</t>
+  </si>
+  <si>
+    <t>STEM education kits</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:46:00.000Z</t>
+  </si>
+  <si>
+    <t>r8t90u12-v34w-506r-stuv-w7890123456r</t>
+  </si>
+  <si>
+    <t>Lab Maintenance</t>
+  </si>
+  <si>
+    <t>Equipment servicing</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:47:00.000Z</t>
+  </si>
+  <si>
+    <t>s9u01v23-w45x-507s-tuvw-x8901234567s</t>
+  </si>
+  <si>
+    <t>Lab Supplies</t>
+  </si>
+  <si>
+    <t>Biology experiment materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:48:00.000Z</t>
+  </si>
+  <si>
+    <t>t0v12w34-x56y-508t-uvwx-y9012345678t</t>
+  </si>
+  <si>
+    <t>Bus Transportation</t>
+  </si>
+  <si>
+    <t>Field trip transportation</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:49:00.000Z</t>
+  </si>
+  <si>
+    <t>u1w23x45-y67z-509u-vwxy-z0123456789u</t>
+  </si>
+  <si>
+    <t>3D Printing Supplies</t>
+  </si>
+  <si>
+    <t>Filament for 3D printers</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:50:00.000Z</t>
+  </si>
+  <si>
+    <t>v2x34y56-z78a-510v-wxyz-a1234567890v</t>
+  </si>
+  <si>
+    <t>3D Printer Maintenance</t>
+  </si>
+  <si>
+    <t>Annual service contract</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:51:00.000Z</t>
+  </si>
+  <si>
+    <t>w3y45z67-a89b-511w-xyza-b2345678901w</t>
+  </si>
+  <si>
+    <t>Bus Reimbursement</t>
+  </si>
+  <si>
+    <t>Student excursion transport</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:52:00.000Z</t>
+  </si>
+  <si>
+    <t>x4z56a78-b90c-512x-yzab-c3456789012x</t>
+  </si>
+  <si>
+    <t>Lab Equipment Service</t>
+  </si>
+  <si>
+    <t>Microscope calibration</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:53:00.000Z</t>
+  </si>
+  <si>
+    <t>y5a67b89-c01d-513y-zabc-d4567890123y</t>
+  </si>
+  <si>
+    <t>LEGO Workshop</t>
+  </si>
+  <si>
+    <t>Ryan teaching sessions</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:54:00.000Z</t>
+  </si>
+  <si>
+    <t>z6b78c90-d12e-514z-abcd-e5678901234z</t>
+  </si>
+  <si>
+    <t>H2GP Registration</t>
+  </si>
+  <si>
+    <t>Competition entry fees</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:55:00.000Z</t>
+  </si>
+  <si>
+    <t>a7c89d01-e23f-515a-bcde-f6789012345a</t>
+  </si>
+  <si>
+    <t>Workshop Supplies</t>
+  </si>
+  <si>
+    <t>Materials for STEM lab</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:56:00.000Z</t>
+  </si>
+  <si>
+    <t>b8d90e12-f34g-516b-cdef-g7890123456b</t>
+  </si>
+  <si>
+    <t>Field trip to science museum</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:57:00.000Z</t>
+  </si>
+  <si>
+    <t>c9e01f23-g45h-517c-defg-h8901234567c</t>
+  </si>
+  <si>
+    <t>Excursion transportation</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:58:00.000Z</t>
+  </si>
+  <si>
+    <t>d0f12g34-h56i-518d-efgh-i9012345678d</t>
+  </si>
+  <si>
+    <t>Student trip transportation</t>
+  </si>
+  <si>
+    <t>2025-04-29T05:59:00.000Z</t>
+  </si>
+  <si>
+    <t>e1g23h45-i67j-519e-fghi-j0123456789e</t>
+  </si>
+  <si>
+    <t>Field trip expenses</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:00:00.000Z</t>
+  </si>
+  <si>
+    <t>f2h34i56-j78k-520f-ghij-k1234567890f</t>
+  </si>
+  <si>
+    <t>Microbit Equipment</t>
+  </si>
+  <si>
+    <t>Coding class materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:01:00.000Z</t>
+  </si>
+  <si>
+    <t>g3i45j67-k89l-521g-hijk-l2345678901g</t>
+  </si>
+  <si>
+    <t>Igloo Maintenance</t>
+  </si>
+  <si>
+    <t>Virtual reality system service</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:02:00.000Z</t>
+  </si>
+  <si>
+    <t>h4j56k78-l90m-522h-ijkl-m3456789012h</t>
+  </si>
+  <si>
+    <t>Learning management system</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:03:00.000Z</t>
+  </si>
+  <si>
+    <t>i5k67l89-m01n-523i-jklm-n4567890123i</t>
+  </si>
+  <si>
+    <t>VR Subscription</t>
+  </si>
+  <si>
+    <t>Annual educational platform</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:04:00.000Z</t>
+  </si>
+  <si>
+    <t>j6l78m90-n12o-524j-klmn-o5678901234j</t>
+  </si>
+  <si>
+    <t>Internet Services</t>
+  </si>
+  <si>
+    <t>Monthly internet service</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:05:00.000Z</t>
+  </si>
+  <si>
+    <t>k7m89n01-o23p-525k-lmno-p6789012345k</t>
+  </si>
+  <si>
+    <t>Classroom stationery</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:06:00.000Z</t>
+  </si>
+  <si>
+    <t>l8n90o12-p34q-526l-mnop-q7890123456l</t>
+  </si>
+  <si>
+    <t>Stationery Order</t>
+  </si>
+  <si>
+    <t>School supplies bulk order</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:07:00.000Z</t>
+  </si>
+  <si>
+    <t>m9o01p23-q45r-527m-nopq-r8901234567m</t>
+  </si>
+  <si>
+    <t>Electronics Components</t>
+  </si>
+  <si>
+    <t>STEM project materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:08:00.000Z</t>
+  </si>
+  <si>
+    <t>n0p12q34-r56s-528n-opqr-s9012345678n</t>
+  </si>
+  <si>
+    <t>Travel Arrangements</t>
+  </si>
+  <si>
+    <t>Staff conference travel</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:09:00.000Z</t>
+  </si>
+  <si>
+    <t>o1q23r45-s67t-529o-pqrs-t0123456789o</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>Mini bins service</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:10:00.000Z</t>
+  </si>
+  <si>
+    <t>p2r34s56-t78u-530p-qrst-u1234567890p</t>
+  </si>
+  <si>
+    <t>Electronic Parts</t>
+  </si>
+  <si>
+    <t>Robotics class components</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:11:00.000Z</t>
+  </si>
+  <si>
+    <t>q3s45t67-u89v-531q-rstu-v2345678901q</t>
+  </si>
+  <si>
+    <t>Acrylic Materials</t>
+  </si>
+  <si>
+    <t>Laser cutting supplies</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:12:00.000Z</t>
+  </si>
+  <si>
+    <t>r4t56u78-v90w-532r-stuv-w3456789012r</t>
+  </si>
+  <si>
+    <t>Catering Services</t>
+  </si>
+  <si>
+    <t>Staff development day</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:13:00.000Z</t>
+  </si>
+  <si>
+    <t>s5u67v89-w01x-533s-tuvw-x4567890123s</t>
+  </si>
+  <si>
+    <t>Computer Accessories</t>
+  </si>
+  <si>
+    <t>Peripherals for labs</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:14:00.000Z</t>
+  </si>
+  <si>
+    <t>t6v78w90-x12y-534t-uvwx-y5678901234t</t>
+  </si>
+  <si>
+    <t>Lab Chemicals</t>
+  </si>
+  <si>
+    <t>Chemistry experiments</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:15:00.000Z</t>
+  </si>
+  <si>
+    <t>u7w89x01-y23z-535u-vwxy-z6789012345u</t>
+  </si>
+  <si>
+    <t>Textbooks</t>
+  </si>
+  <si>
+    <t>Science curriculum books</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:16:00.000Z</t>
+  </si>
+  <si>
+    <t>v8x90y12-z34a-536v-wxyz-a7890123456v</t>
+  </si>
+  <si>
+    <t>Audio Equipment</t>
+  </si>
+  <si>
+    <t>Classroom speakers</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:17:00.000Z</t>
+  </si>
+  <si>
+    <t>w9y01z23-a45b-537w-xyza-b8901234567w</t>
+  </si>
+  <si>
+    <t>Protective Equipment</t>
+  </si>
+  <si>
+    <t>Lab safety gear</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:18:00.000Z</t>
+  </si>
+  <si>
+    <t>x0z12a34-b56c-538x-yzab-c9012345678x</t>
+  </si>
+  <si>
+    <t>Software License</t>
+  </si>
+  <si>
+    <t>Design software annual fee</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:19:00.000Z</t>
+  </si>
+  <si>
+    <t>y1a23b45-c67d-539y-zabc-d0123456789y</t>
+  </si>
+  <si>
+    <t>Science Specimens</t>
+  </si>
+  <si>
+    <t>Biology lab materials</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:20:00.000Z</t>
+  </si>
+  <si>
+    <t>z2b34c56-d78e-540z-abcd-e1234567890z</t>
+  </si>
+  <si>
+    <t>Student event refreshments</t>
+  </si>
+  <si>
+    <t>2025-04-29T06:21:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -2079,10 +2676,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2423,17 +3019,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
+    <col min="2" max="2" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +3122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +3166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2609,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2653,7 +3254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2697,7 +3298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +3342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -2785,7 +3386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2829,7 +3430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2873,7 +3474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -2915,6 +3516,2246 @@
       </c>
       <c r="N11" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>668</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C12" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>3450.75</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>670</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45703</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45708</v>
+      </c>
+      <c r="C13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <v>899.99</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>674</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45708</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45713</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45721</v>
+      </c>
+      <c r="C14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
+        <v>1275.5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>678</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45721</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15">
+        <v>2356</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>681</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45726</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45731</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C16" t="s">
+        <v>684</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>789.95</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>685</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45731</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45736</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17">
+        <v>4500</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>688</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45736</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>690</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18">
+        <v>1825.45</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>692</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45741</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45748</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>694</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C19" t="s">
+        <v>695</v>
+      </c>
+      <c r="D19" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19">
+        <v>345.67</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>696</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45748</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45752</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C20" t="s">
+        <v>699</v>
+      </c>
+      <c r="D20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20">
+        <v>678.99</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>700</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45752</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>702</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C21" t="s">
+        <v>703</v>
+      </c>
+      <c r="D21" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21">
+        <v>245.5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>704</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45757</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45762</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22">
+        <v>1200</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>708</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45762</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45767</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>710</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C23" t="s">
+        <v>711</v>
+      </c>
+      <c r="D23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E23">
+        <v>3750.25</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>712</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45662</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45667</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>714</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C24" t="s">
+        <v>715</v>
+      </c>
+      <c r="D24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E24">
+        <v>89.5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>716</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45667</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45672</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>720</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45672</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45677</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45677</v>
+      </c>
+      <c r="C26" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26">
+        <v>1450</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>724</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45677</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>726</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45682</v>
+      </c>
+      <c r="C27" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" t="s">
+        <v>627</v>
+      </c>
+      <c r="E27">
+        <v>599.99</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>728</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45682</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45687</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>730</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D28" t="s">
+        <v>633</v>
+      </c>
+      <c r="E28">
+        <v>875.45</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>732</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45687</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45693</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>734</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>735</v>
+      </c>
+      <c r="D29" t="s">
+        <v>638</v>
+      </c>
+      <c r="E29">
+        <v>2350</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>736</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45693</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>738</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45698</v>
+      </c>
+      <c r="C30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D30" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30">
+        <v>1325.75</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>740</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45698</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45703</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C31" t="s">
+        <v>743</v>
+      </c>
+      <c r="D31" t="s">
+        <v>650</v>
+      </c>
+      <c r="E31">
+        <v>780</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>744</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45703</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45708</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45708</v>
+      </c>
+      <c r="C32" t="s">
+        <v>747</v>
+      </c>
+      <c r="D32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E32">
+        <v>425.99</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>748</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45708</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45713</v>
+      </c>
+      <c r="C33" t="s">
+        <v>751</v>
+      </c>
+      <c r="D33" t="s">
+        <v>662</v>
+      </c>
+      <c r="E33">
+        <v>1250</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>752</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45713</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>754</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C34" t="s">
+        <v>755</v>
+      </c>
+      <c r="D34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34">
+        <v>895</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45717</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45721</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>758</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45721</v>
+      </c>
+      <c r="C35" t="s">
+        <v>759</v>
+      </c>
+      <c r="D35" t="s">
+        <v>492</v>
+      </c>
+      <c r="E35">
+        <v>1800</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
+        <v>760</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45721</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>762</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C36" t="s">
+        <v>763</v>
+      </c>
+      <c r="D36" t="s">
+        <v>498</v>
+      </c>
+      <c r="E36">
+        <v>2500</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>764</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45726</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45731</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>766</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C37" t="s">
+        <v>767</v>
+      </c>
+      <c r="D37" t="s">
+        <v>504</v>
+      </c>
+      <c r="E37">
+        <v>750</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>768</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45731</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45736</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>770</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C38" t="s">
+        <v>771</v>
+      </c>
+      <c r="D38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E38">
+        <v>435.75</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>772</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45736</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>774</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C39" t="s">
+        <v>743</v>
+      </c>
+      <c r="D39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E39">
+        <v>650</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>775</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45741</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45746</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>777</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C40" t="s">
+        <v>755</v>
+      </c>
+      <c r="D40" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40">
+        <v>725.5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>778</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45746</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45752</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>780</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C41" t="s">
+        <v>755</v>
+      </c>
+      <c r="D41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E41">
+        <v>800</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s">
+        <v>781</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45752</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>783</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D42" t="s">
+        <v>532</v>
+      </c>
+      <c r="E42">
+        <v>675.25</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>784</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45757</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45762</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>786</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C43" t="s">
+        <v>787</v>
+      </c>
+      <c r="D43" t="s">
+        <v>537</v>
+      </c>
+      <c r="E43">
+        <v>1250.5</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>788</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45762</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45767</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>790</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C44" t="s">
+        <v>791</v>
+      </c>
+      <c r="D44" t="s">
+        <v>543</v>
+      </c>
+      <c r="E44">
+        <v>3500</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>792</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45767</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>794</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C45" t="s">
+        <v>552</v>
+      </c>
+      <c r="D45" t="s">
+        <v>548</v>
+      </c>
+      <c r="E45">
+        <v>1899.99</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>795</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45662</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45667</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C46" t="s">
+        <v>798</v>
+      </c>
+      <c r="D46" t="s">
+        <v>554</v>
+      </c>
+      <c r="E46">
+        <v>745</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>799</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45667</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45672</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>801</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C47" t="s">
+        <v>802</v>
+      </c>
+      <c r="D47" t="s">
+        <v>559</v>
+      </c>
+      <c r="E47">
+        <v>550</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s">
+        <v>803</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45672</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>805</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45677</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48">
+        <v>375.65</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>806</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45677</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45682</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>808</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45682</v>
+      </c>
+      <c r="C49" t="s">
+        <v>809</v>
+      </c>
+      <c r="D49" t="s">
+        <v>569</v>
+      </c>
+      <c r="E49">
+        <v>625.99</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>810</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45682</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45687</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>812</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C50" t="s">
+        <v>813</v>
+      </c>
+      <c r="D50" t="s">
+        <v>574</v>
+      </c>
+      <c r="E50">
+        <v>1875.45</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>814</v>
+      </c>
+      <c r="K50" s="1">
+        <v>45687</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>816</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45693</v>
+      </c>
+      <c r="C51" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" t="s">
+        <v>580</v>
+      </c>
+      <c r="E51">
+        <v>3250</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>818</v>
+      </c>
+      <c r="K51" s="1">
+        <v>45693</v>
+      </c>
+      <c r="L51" s="1">
+        <v>45698</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>820</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45698</v>
+      </c>
+      <c r="C52" t="s">
+        <v>821</v>
+      </c>
+      <c r="D52" t="s">
+        <v>586</v>
+      </c>
+      <c r="E52">
+        <v>325</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>822</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45698</v>
+      </c>
+      <c r="L52" s="1">
+        <v>45703</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>824</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C53" t="s">
+        <v>825</v>
+      </c>
+      <c r="D53" t="s">
+        <v>592</v>
+      </c>
+      <c r="E53">
+        <v>950.75</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s">
+        <v>826</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45703</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>828</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45708</v>
+      </c>
+      <c r="C54" t="s">
+        <v>829</v>
+      </c>
+      <c r="D54" t="s">
+        <v>598</v>
+      </c>
+      <c r="E54">
+        <v>785.25</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>830</v>
+      </c>
+      <c r="K54" s="1">
+        <v>45708</v>
+      </c>
+      <c r="L54" s="1">
+        <v>45713</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>832</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45713</v>
+      </c>
+      <c r="C55" t="s">
+        <v>833</v>
+      </c>
+      <c r="D55" t="s">
+        <v>604</v>
+      </c>
+      <c r="E55">
+        <v>1250</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>834</v>
+      </c>
+      <c r="K55" s="1">
+        <v>45713</v>
+      </c>
+      <c r="L55" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>836</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C56" t="s">
+        <v>837</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>875.5</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>838</v>
+      </c>
+      <c r="K56" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>840</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45721</v>
+      </c>
+      <c r="C57" t="s">
+        <v>841</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57">
+        <v>1500</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>842</v>
+      </c>
+      <c r="K57" s="1">
+        <v>45721</v>
+      </c>
+      <c r="L57" s="1">
+        <v>45726</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>844</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C58" t="s">
+        <v>845</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58">
+        <v>2250.75</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>846</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45726</v>
+      </c>
+      <c r="L58" s="1">
+        <v>45731</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>848</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C59" t="s">
+        <v>849</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59">
+        <v>1875.99</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s">
+        <v>850</v>
+      </c>
+      <c r="K59" s="1">
+        <v>45731</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>852</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C60" t="s">
+        <v>853</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <v>675.45</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>854</v>
+      </c>
+      <c r="K60" s="1">
+        <v>45736</v>
+      </c>
+      <c r="L60" s="1">
+        <v>45741</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>856</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C61" t="s">
+        <v>857</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61">
+        <v>2999</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>858</v>
+      </c>
+      <c r="K61" s="1">
+        <v>45741</v>
+      </c>
+      <c r="L61" s="1">
+        <v>45746</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>860</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C62" t="s">
+        <v>861</v>
+      </c>
+      <c r="D62" t="s">
+        <v>448</v>
+      </c>
+      <c r="E62">
+        <v>1450.5</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>49</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s">
+        <v>862</v>
+      </c>
+      <c r="K62" s="1">
+        <v>45746</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>864</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C63" t="s">
+        <v>695</v>
+      </c>
+      <c r="D63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E63">
+        <v>325.75</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>865</v>
+      </c>
+      <c r="K63" s="1">
+        <v>45748</v>
+      </c>
+      <c r="L63" s="1">
+        <v>45752</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -2929,11 +5770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -2991,7 +5832,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -3020,7 +5861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -3049,7 +5890,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -3078,7 +5919,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -3107,7 +5948,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>227</v>
       </c>
@@ -3136,7 +5977,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -3165,7 +6006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -3194,7 +6035,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -3223,7 +6064,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -3252,7 +6093,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -3281,7 +6122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -3310,7 +6151,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -3339,7 +6180,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -3368,7 +6209,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -3397,7 +6238,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -3426,7 +6267,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -3455,7 +6296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -3484,7 +6325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -3513,7 +6354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -3542,7 +6383,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -3571,7 +6412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -3612,11 +6453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M22" sqref="M22:M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.5625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.4375" bestFit="1" customWidth="1"/>
@@ -3627,7 +6468,7 @@
     <col min="13" max="13" width="10.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +6515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +6540,7 @@
       <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>111</v>
       </c>
       <c r="L2" t="s">
@@ -3715,7 +6556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -3756,7 +6597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3797,7 +6638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3838,7 +6679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3879,11 +6720,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C7" t="s">
@@ -3895,10 +6736,10 @@
       <c r="E7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>348</v>
       </c>
       <c r="J7" t="s">
@@ -3907,7 +6748,7 @@
       <c r="K7" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>426</v>
       </c>
       <c r="M7" t="s">
@@ -3917,7 +6758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>448</v>
       </c>
@@ -3964,7 +6805,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -4011,7 +6852,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -4058,7 +6899,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>468</v>
       </c>
@@ -4105,7 +6946,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>474</v>
       </c>
@@ -4152,7 +6993,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -4199,7 +7040,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>611</v>
       </c>
@@ -4246,7 +7087,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>616</v>
       </c>
@@ -4293,7 +7134,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>622</v>
       </c>
@@ -4340,7 +7181,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>627</v>
       </c>
@@ -4387,7 +7228,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>633</v>
       </c>
@@ -4434,7 +7275,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>638</v>
       </c>
@@ -4481,7 +7322,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -4528,7 +7369,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>650</v>
       </c>
@@ -4575,7 +7416,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>655</v>
       </c>
@@ -4622,7 +7463,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -4669,7 +7510,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>486</v>
       </c>
@@ -4716,7 +7557,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -4763,7 +7604,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>498</v>
       </c>
@@ -4810,7 +7651,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>504</v>
       </c>
@@ -4857,7 +7698,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -4904,7 +7745,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>516</v>
       </c>
@@ -4951,7 +7792,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -4998,7 +7839,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>527</v>
       </c>
@@ -5045,7 +7886,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>532</v>
       </c>
@@ -5092,7 +7933,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>537</v>
       </c>
@@ -5139,7 +7980,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>543</v>
       </c>
@@ -5186,7 +8027,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -5233,7 +8074,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>554</v>
       </c>
@@ -5280,7 +8121,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>559</v>
       </c>
@@ -5327,7 +8168,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>565</v>
       </c>
@@ -5374,7 +8215,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>569</v>
       </c>
@@ -5421,7 +8262,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>574</v>
       </c>
@@ -5468,7 +8309,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>580</v>
       </c>
@@ -5515,7 +8356,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>586</v>
       </c>
@@ -5562,7 +8403,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>592</v>
       </c>
@@ -5609,7 +8450,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>598</v>
       </c>
@@ -5656,7 +8497,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>604</v>
       </c>
@@ -5716,16 +8557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5747,7 +8588,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5758,7 +8599,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -5769,7 +8610,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5780,7 +8621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5791,7 +8632,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -5802,7 +8643,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>302</v>
       </c>
@@ -5813,7 +8654,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -5824,7 +8665,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -5835,7 +8676,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -5846,7 +8687,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -5857,7 +8698,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -5868,7 +8709,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>308</v>
       </c>
@@ -5879,7 +8720,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -5890,7 +8731,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>309</v>
       </c>
@@ -5901,7 +8742,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -5912,7 +8753,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>311</v>
       </c>
@@ -5923,7 +8764,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -5934,7 +8775,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -5945,7 +8786,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>314</v>
       </c>
@@ -5956,7 +8797,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>315</v>
       </c>
@@ -5967,7 +8808,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -5978,7 +8819,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -5989,7 +8830,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -6000,7 +8841,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>319</v>
       </c>
@@ -6011,7 +8852,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -6022,7 +8863,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -6033,7 +8874,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>322</v>
       </c>
@@ -6044,7 +8885,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>323</v>
       </c>
@@ -6055,7 +8896,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -6066,7 +8907,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>324</v>
       </c>
@@ -6077,7 +8918,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -6088,7 +8929,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -6099,7 +8940,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>327</v>
       </c>
@@ -6110,7 +8951,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -6121,7 +8962,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -6132,7 +8973,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>330</v>
       </c>
@@ -6143,7 +8984,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>331</v>
       </c>
@@ -6154,7 +8995,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>332</v>
       </c>
@@ -6165,7 +9006,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>333</v>
       </c>
@@ -6176,7 +9017,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>334</v>
       </c>
@@ -6187,7 +9028,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -6198,7 +9039,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -6209,7 +9050,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>337</v>
       </c>
@@ -6220,7 +9061,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -6231,7 +9072,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -6242,7 +9083,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>339</v>
       </c>
@@ -6253,7 +9094,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -6264,7 +9105,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -6275,7 +9116,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -6301,9 +9142,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6314,7 +9155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6325,7 +9166,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6336,7 +9177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6347,7 +9188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -6372,9 +9213,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6385,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6396,7 +9237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6407,7 +9248,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6432,9 +9273,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6445,7 +9286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6456,7 +9297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6467,7 +9308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6492,13 +9333,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="19.0625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6527,7 +9368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6556,7 +9397,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6585,7 +9426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6628,9 +9469,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +9530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -6745,7 +9586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -6801,7 +9642,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -6871,9 +9712,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6899,7 +9740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -6925,7 +9766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -6951,7 +9792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>209</v>
       </c>

--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -457,11 +457,14 @@
       <c r="E2" t="str">
         <v>admin</v>
       </c>
+      <c r="F2" t="str">
+        <v>read,write,delete,admin</v>
+      </c>
       <c r="G2" t="str">
         <v>admin</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-04-29T04:58:50.090Z</v>
+        <v>2025-05-01T00:34:45.831Z</v>
       </c>
       <c r="I2" t="str">
         <v>active</v>
@@ -483,11 +486,14 @@
       <c r="E3" t="str">
         <v>user</v>
       </c>
+      <c r="F3" t="str">
+        <v>read,write,delete</v>
+      </c>
       <c r="G3" t="str">
         <v>admin</v>
       </c>
       <c r="H3" t="str">
-        <v>2025-04-29T04:59:16.302Z</v>
+        <v>2025-05-01T00:34:53.271Z</v>
       </c>
       <c r="I3" t="str">
         <v>active</v>
@@ -509,11 +515,14 @@
       <c r="E4" t="str">
         <v>viewer</v>
       </c>
+      <c r="F4" t="str">
+        <v>read</v>
+      </c>
       <c r="G4" t="str">
         <v>admin</v>
       </c>
       <c r="H4" t="str">
-        <v>2025-04-29T04:59:22.458Z</v>
+        <v>2025-05-01T00:34:59.346Z</v>
       </c>
       <c r="I4" t="str">
         <v>active</v>
@@ -528,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,9 +1441,183 @@
         <v>Created new PaymentCenterBudget</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>AUDIT1746059685832</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2025-05-01T00:34:45.832Z</v>
+      </c>
+      <c r="H32" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:45.831Z","status":"active"}}</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>AUDIT1746059685832</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2025-05-01T00:34:45.832Z</v>
+      </c>
+      <c r="H33" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:45.831Z","status":"active"}}</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>AUDIT1746059693271</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2</v>
+      </c>
+      <c r="D34" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E34" t="str">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2025-05-01T00:34:53.271Z</v>
+      </c>
+      <c r="H34" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:53.271Z","status":"active"}}</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>AUDIT1746059693271</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2025-05-01T00:34:53.271Z</v>
+      </c>
+      <c r="H35" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:53.271Z","status":"active"}}</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>AUDIT1746059699346</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C36" t="str">
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2025-05-01T00:34:59.346Z</v>
+      </c>
+      <c r="H36" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:59.346Z","status":"active"}}</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>AUDIT1746059699346</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E37" t="str">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2025-05-01T00:34:59.346Z</v>
+      </c>
+      <c r="H37" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:59.346Z","status":"active"}}</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I37"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Suppliers" sheetId="2" r:id="rId2"/>
-    <sheet name="Programs" sheetId="3" r:id="rId3"/>
-    <sheet name="PaymentCenters" sheetId="4" r:id="rId4"/>
+    <sheet name="PaymentCenters" sheetId="3" r:id="rId3"/>
+    <sheet name="PaymentCenterBudgets" sheetId="4" r:id="rId4"/>
     <sheet name="PaymentTypes" sheetId="5" r:id="rId5"/>
     <sheet name="ExpenseStatus" sheetId="6" r:id="rId6"/>
-    <sheet name="Users" sheetId="7" r:id="rId7"/>
+    <sheet name="Expenses" sheetId="7" r:id="rId7"/>
     <sheet name="JournalEntries" sheetId="8" r:id="rId8"/>
     <sheet name="JournalLines" sheetId="9" r:id="rId9"/>
     <sheet name="AuditLog" sheetId="10" r:id="rId10"/>
+    <sheet name="Programs" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -406,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,363 +417,127 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>date</v>
+        <v>username</v>
       </c>
       <c r="C1" t="str">
-        <v>description</v>
+        <v>name</v>
       </c>
       <c r="D1" t="str">
-        <v>supplier</v>
+        <v>email</v>
       </c>
       <c r="E1" t="str">
-        <v>amount</v>
+        <v>role</v>
       </c>
       <c r="F1" t="str">
-        <v>paymentType</v>
+        <v>permissions</v>
       </c>
       <c r="G1" t="str">
-        <v>paymentCenter</v>
+        <v>modifiedBy</v>
       </c>
       <c r="H1" t="str">
-        <v>program</v>
+        <v>modifiedAt</v>
       </c>
       <c r="I1" t="str">
         <v>status</v>
       </c>
-      <c r="J1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="K1" t="str">
-        <v>invoiceDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>paymentDate</v>
-      </c>
-      <c r="M1" t="str">
-        <v>createdBy</v>
-      </c>
-      <c r="N1" t="str">
-        <v>createdAt</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>01bd888d-bf78-4574-88a6-70bfda87fbcf</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-01-20</v>
+        <v>admin</v>
       </c>
       <c r="C2" t="str">
-        <v>Computer Equipment Purchase</v>
+        <v>Lisa Williams</v>
       </c>
       <c r="D2" t="str">
-        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
+        <v>admin@example.com</v>
       </c>
       <c r="E2" t="str">
-        <v>5699.99</v>
+        <v>admin</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>read,write,delete,admin</v>
       </c>
       <c r="G2" t="str">
-        <v>1</v>
+        <v>admin</v>
       </c>
       <c r="H2" t="str">
-        <v>1</v>
+        <v>2025-05-01T00:34:45.831Z</v>
       </c>
       <c r="I2" t="str">
-        <v>Paid</v>
-      </c>
-      <c r="J2" t="str">
-        <v>New laptops for staff</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2023-01-25</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2023-02-10</v>
-      </c>
-      <c r="M2" t="str">
-        <v>admin</v>
-      </c>
-      <c r="N2" t="str">
-        <v>2025-04-23T23:40:59.702Z</v>
+        <v>active</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>226385ed-d459-469e-a226-cd36a450178f</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-02-05</v>
+        <v>user</v>
       </c>
       <c r="C3" t="str">
-        <v>Office Supplies</v>
+        <v>Regular User</v>
       </c>
       <c r="D3" t="str">
-        <v>11139606-2bf4-4e27-a5e6-581233416593</v>
+        <v>user@example.com</v>
       </c>
       <c r="E3" t="str">
-        <v>824.5</v>
+        <v>user</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>read,write,delete</v>
       </c>
       <c r="G3" t="str">
-        <v>1</v>
+        <v>admin</v>
       </c>
       <c r="H3" t="str">
-        <v>1</v>
+        <v>2025-05-01T00:34:53.271Z</v>
       </c>
       <c r="I3" t="str">
-        <v>Paid</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Monthly office supplies</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2023-02-05</v>
-      </c>
-      <c r="L3" t="str">
-        <v>2023-02-05</v>
-      </c>
-      <c r="M3" t="str">
-        <v>admin</v>
-      </c>
-      <c r="N3" t="str">
-        <v>2023-02-05T10:15:00.000Z</v>
+        <v>active</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-02-15</v>
+        <v>viewer</v>
       </c>
       <c r="C4" t="str">
-        <v>Educational Materials</v>
+        <v>Viewer</v>
       </c>
       <c r="D4" t="str">
-        <v>f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9</v>
+        <v>viewer@example.com</v>
       </c>
       <c r="E4" t="str">
-        <v>3450</v>
+        <v>viewer</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>read</v>
       </c>
       <c r="G4" t="str">
-        <v>2</v>
+        <v>admin</v>
       </c>
       <c r="H4" t="str">
-        <v>2</v>
+        <v>2025-05-01T00:34:59.346Z</v>
       </c>
       <c r="I4" t="str">
-        <v>Invoiced</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Materials for outreach program</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2023-02-20</v>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v>user</v>
-      </c>
-      <c r="N4" t="str">
-        <v>2023-02-15T14:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>9034c974-68bd-4206-8930-6ca8964e4acc</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2023-03-01</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Staff Training Workshop</v>
-      </c>
-      <c r="D5" t="str">
-        <v>f70c0036-d2f2-49f2-b82b-9e25b4857a76</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2750</v>
-      </c>
-      <c r="F5" t="str">
-        <v>3</v>
-      </c>
-      <c r="G5" t="str">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>5</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Committed</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Leadership training for department heads</v>
-      </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v>admin</v>
-      </c>
-      <c r="N5" t="str">
-        <v>2023-03-01T11:45:00.000Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>01f00479-5015-4a32-a1a0-645bc48ab2ed</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2023-03-10</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Equipment Maintenance</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2bdb9f5a-ad0a-4722-9bbd-1568a4d448c8</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1200</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>4</v>
-      </c>
-      <c r="H6" t="str">
-        <v>4</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Paid</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Quarterly equipment maintenance</v>
-      </c>
-      <c r="K6" t="str">
-        <v>2023-03-15</v>
-      </c>
-      <c r="L6" t="str">
-        <v>2023-03-30</v>
-      </c>
-      <c r="M6" t="str">
-        <v>user</v>
-      </c>
-      <c r="N6" t="str">
-        <v>2023-03-10T13:20:00.000Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>f4fd48f3-4ba7-4b26-831c-0998237d8676</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2023-03-20</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Software Licenses</v>
-      </c>
-      <c r="D7" t="str">
-        <v>38d55a28-9ed7-4fab-b86e-cca27fce1cdb</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3599</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2</v>
-      </c>
-      <c r="G7" t="str">
-        <v>1</v>
-      </c>
-      <c r="H7" t="str">
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Paid</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Annual software license renewal</v>
-      </c>
-      <c r="K7" t="str">
-        <v>2023-03-20</v>
-      </c>
-      <c r="L7" t="str">
-        <v>2023-03-20</v>
-      </c>
-      <c r="M7" t="str">
-        <v>admin</v>
-      </c>
-      <c r="N7" t="str">
-        <v>2023-03-20T09:10:00.000Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>cb71bb68-5515-4d68-88eb-b23dc86b6d6a</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2025-04-23</v>
-      </c>
-      <c r="C8" t="str">
-        <v>film strip</v>
-      </c>
-      <c r="D8" t="str">
-        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
-      </c>
-      <c r="E8" t="str">
-        <v>6573</v>
-      </c>
-      <c r="F8" t="str">
-        <v>3</v>
-      </c>
-      <c r="G8" t="str">
-        <v>2</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Invoiced</v>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v>2025-04-24</v>
-      </c>
-      <c r="L8" t="str">
-        <v>2025-04-23</v>
-      </c>
-      <c r="M8" t="str">
-        <v>admin</v>
-      </c>
-      <c r="N8" t="str">
-        <v>2025-04-23T23:45:14.121Z</v>
+        <v>active</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,16 +629,1002 @@
         <v>Created journal entry JE-20250424-003</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>AUDIT1745477662005</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C4" t="str">
+        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2025-04-24T06:54:22.005Z</v>
+      </c>
+      <c r="H4" t="str">
+        <v>{"before":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Invoiced","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"},"after":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Paid","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"2025-04-24","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"}}</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Updated Expense 7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>AUDIT1745477662005</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2025-04-24T06:54:22.005Z</v>
+      </c>
+      <c r="H5" t="str">
+        <v>{"before":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Invoiced","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"},"after":{"id":"7776af38-6226-4f6a-9d0e-68a9a692852f","date":"2023-02-15","description":"Educational Materials","supplier":"f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9","amount":"3450","paymentType":"1","paymentCenter":"2","program":"2","status":"Paid","notes":"Materials for outreach program","invoiceDate":"2023-02-20","paymentDate":"2025-04-24","createdBy":"user","createdAt":"2023-02-15T14:00:00.000Z"}}</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Updated Expense 7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AUDIT1745882670934</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-04-28T23:24:30.934Z</v>
+      </c>
+      <c r="H6" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:58.039Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"}}</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>AUDIT1745882670934</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2025-04-28T23:24:30.934Z</v>
+      </c>
+      <c r="H7" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:58.039Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"}}</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>AUDIT1745882681205</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-04-28T23:24:41.205Z</v>
+      </c>
+      <c r="H8" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:55:18.315Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"}}</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>AUDIT1745882681205</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2025-04-28T23:24:41.205Z</v>
+      </c>
+      <c r="H9" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:55:18.315Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"}}</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>AUDIT1745887950092</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5f9cabb6-afe8-4dcc-9012-94b625a910f5</v>
+      </c>
+      <c r="D10" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2025-04-29T00:52:30.092Z</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>AUDIT1745887950092</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C11" t="str">
+        <v>5f9cabb6-afe8-4dcc-9012-94b625a910f5</v>
+      </c>
+      <c r="D11" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2025-04-29T00:52:30.092Z</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>AUDIT1745894686897</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Suppliers</v>
+      </c>
+      <c r="C12" t="str">
+        <v>7e41b567-1cdc-4e09-b690-5b2581cfef76</v>
+      </c>
+      <c r="D12" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2025-04-29T02:44:46.897Z</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>Created new Supplier</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>AUDIT1745894686897</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Suppliers</v>
+      </c>
+      <c r="C13" t="str">
+        <v>7e41b567-1cdc-4e09-b690-5b2581cfef76</v>
+      </c>
+      <c r="D13" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2025-04-29T02:44:46.897Z</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>Created new Supplier</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>AUDIT1745900349962</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4eec161e-af14-46cb-afff-a8c46f2d5bd3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2025-04-29T04:19:09.962Z</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>AUDIT1745900349962</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C15" t="str">
+        <v>4eec161e-af14-46cb-afff-a8c46f2d5bd3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2025-04-29T04:19:09.962Z</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>AUDIT1745900469277</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2ad67afa-7deb-4d27-a738-21b5e4ae58b8</v>
+      </c>
+      <c r="D16" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2025-04-29T04:21:09.277Z</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>AUDIT1745900469277</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2ad67afa-7deb-4d27-a738-21b5e4ae58b8</v>
+      </c>
+      <c r="D17" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E17" t="str">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2025-04-29T04:21:09.277Z</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v>Created new Expense</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>AUDIT1745902730091</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2025-04-29T04:58:50.091Z</v>
+      </c>
+      <c r="H18" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:41.829Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"}}</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>AUDIT1745902730091</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2025-04-29T04:58:50.091Z</v>
+      </c>
+      <c r="H19" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-24T00:54:41.829Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"}}</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>AUDIT1745902756302</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2025-04-29T04:59:16.302Z</v>
+      </c>
+      <c r="H20" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"}}</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>AUDIT1745902756302</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2025-04-29T04:59:16.302Z</v>
+      </c>
+      <c r="H21" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:30.933Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"}}</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>AUDIT1745902762458</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C22" t="str">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2025-04-29T04:59:22.458Z</v>
+      </c>
+      <c r="H22" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"}}</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>AUDIT1745902762458</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C23" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2025-04-29T04:59:22.458Z</v>
+      </c>
+      <c r="H23" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-28T23:24:41.205Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"}}</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>AUDIT1746058180070</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C24" t="str">
+        <v>budget-1-2025</v>
+      </c>
+      <c r="D24" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2025-05-01T00:09:40.070Z</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>AUDIT1746058180070</v>
+      </c>
+      <c r="B25" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C25" t="str">
+        <v>budget-1-2025</v>
+      </c>
+      <c r="D25" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2025-05-01T00:09:40.070Z</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>AUDIT1746058180139</v>
+      </c>
+      <c r="B26" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C26" t="str">
+        <v>budget-2-2025</v>
+      </c>
+      <c r="D26" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E26" t="str">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2025-05-01T00:09:40.139Z</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>AUDIT1746058180139</v>
+      </c>
+      <c r="B27" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C27" t="str">
+        <v>budget-2-2025</v>
+      </c>
+      <c r="D27" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2025-05-01T00:09:40.139Z</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>AUDIT1746058180217</v>
+      </c>
+      <c r="B28" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C28" t="str">
+        <v>budget-3-2025</v>
+      </c>
+      <c r="D28" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E28" t="str">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2025-05-01T00:09:40.217Z</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>AUDIT1746058180217</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C29" t="str">
+        <v>budget-3-2025</v>
+      </c>
+      <c r="D29" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2025-05-01T00:09:40.217Z</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>AUDIT1746058180300</v>
+      </c>
+      <c r="B30" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C30" t="str">
+        <v>budget-4-2025</v>
+      </c>
+      <c r="D30" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2025-05-01T00:09:40.300Z</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>AUDIT1746058180300</v>
+      </c>
+      <c r="B31" t="str">
+        <v>PaymentCenterBudgets</v>
+      </c>
+      <c r="C31" t="str">
+        <v>budget-4-2025</v>
+      </c>
+      <c r="D31" t="str">
+        <v>CREATE</v>
+      </c>
+      <c r="E31" t="str">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2025-05-01T00:09:40.300Z</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v>Created new PaymentCenterBudget</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>AUDIT1746059685832</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2025-05-01T00:34:45.832Z</v>
+      </c>
+      <c r="H32" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:45.831Z","status":"active"}}</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>AUDIT1746059685832</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2025-05-01T00:34:45.832Z</v>
+      </c>
+      <c r="H33" t="str">
+        <v>{"before":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:58:50.090Z","status":"active"},"after":{"id":"1","username":"admin","name":"Lisa Williams","email":"admin@example.com","role":"admin","permissions":["read","write","delete","admin"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:45.831Z","status":"active"}}</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Updated User 1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>AUDIT1746059693271</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2</v>
+      </c>
+      <c r="D34" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E34" t="str">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2025-05-01T00:34:53.271Z</v>
+      </c>
+      <c r="H34" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:53.271Z","status":"active"}}</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>AUDIT1746059693271</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2025-05-01T00:34:53.271Z</v>
+      </c>
+      <c r="H35" t="str">
+        <v>{"before":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:16.302Z","status":"active"},"after":{"id":"2","username":"user","name":"Regular User","email":"user@example.com","role":"user","permissions":["read","write","delete"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:53.271Z","status":"active"}}</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Updated User 2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>AUDIT1746059699346</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C36" t="str">
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2025-05-01T00:34:59.346Z</v>
+      </c>
+      <c r="H36" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:59.346Z","status":"active"}}</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>AUDIT1746059699346</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Users</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <v>UPDATE</v>
+      </c>
+      <c r="E37" t="str">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2025-05-01T00:34:59.346Z</v>
+      </c>
+      <c r="H37" t="str">
+        <v>{"before":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":[],"modifiedBy":"admin","modifiedAt":"2025-04-29T04:59:22.458Z","status":"active"},"after":{"id":"3","username":"viewer","name":"Viewer","email":"viewer@example.com","role":"viewer","permissions":["read"],"modifiedBy":"admin","modifiedAt":"2025-05-01T00:34:59.346Z","status":"active"}}</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Updated User 3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I37"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -886,254 +1637,569 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>code</v>
-      </c>
-      <c r="D1" t="str">
-        <v>category</v>
-      </c>
-      <c r="E1" t="str">
-        <v>status</v>
-      </c>
-      <c r="F1" t="str">
-        <v>contactName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>email</v>
-      </c>
-      <c r="H1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="I1" t="str">
-        <v>address</v>
-      </c>
-      <c r="J1" t="str">
-        <v>abn</v>
-      </c>
-      <c r="K1" t="str">
-        <v>paymentTerms</v>
-      </c>
-      <c r="L1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="M1" t="str">
-        <v>createdAt</v>
+        <v>description</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Tech Solutions Inc.</v>
+        <v>Discovery: 3D Design Merge</v>
       </c>
       <c r="C2" t="str">
-        <v>SUP0001</v>
-      </c>
-      <c r="D2" t="str">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F2" t="str">
-        <v>John Smith</v>
-      </c>
-      <c r="G2" t="str">
-        <v>john@techsolutions.com</v>
-      </c>
-      <c r="H2" t="str">
-        <v>(03) 9555-1234</v>
-      </c>
-      <c r="I2" t="str">
-        <v>123 Tech Lane, Melbourne VIC 3000</v>
-      </c>
-      <c r="J2" t="str">
-        <v>12 345 678 901</v>
-      </c>
-      <c r="K2" t="str">
-        <v>30</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Preferred IT hardware supplier</v>
-      </c>
-      <c r="M2" t="str">
-        <v>2023-01-15</v>
+        <v>KIOSC events</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Office Supplies Co.</v>
+        <v>Discovery: Aspirin Analysis</v>
       </c>
       <c r="C3" t="str">
-        <v>SUP0002</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Sarah Johnson</v>
-      </c>
-      <c r="G3" t="str">
-        <v>sarah@officesupplies.com</v>
-      </c>
-      <c r="H3" t="str">
-        <v>(03) 9555-5678</v>
-      </c>
-      <c r="I3" t="str">
-        <v>456 Supply Street, Melbourne VIC 3000</v>
-      </c>
-      <c r="J3" t="str">
-        <v>23 456 789 012</v>
-      </c>
-      <c r="K3" t="str">
-        <v>14</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Regular office supply vendor</v>
-      </c>
-      <c r="M3" t="str">
-        <v>2023-02-10</v>
+        <v>KIOSC events</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>664f112c-366a-44da-b9d4-06d41ae723b2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Education Resources Ltd.</v>
+        <v>Discovery: Bioplastics</v>
       </c>
       <c r="C4" t="str">
-        <v>SUP0003</v>
-      </c>
-      <c r="D4" t="str">
-        <v>5</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Michael Chen</v>
-      </c>
-      <c r="G4" t="str">
-        <v>michael@eduresources.com</v>
-      </c>
-      <c r="H4" t="str">
-        <v>(03) 9555-9012</v>
-      </c>
-      <c r="I4" t="str">
-        <v>789 Learning Road, Melbourne VIC 3000</v>
-      </c>
-      <c r="J4" t="str">
-        <v>34 567 890 123</v>
-      </c>
-      <c r="K4" t="str">
-        <v>30</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Educational materials and resources</v>
-      </c>
-      <c r="M4" t="str">
-        <v>2023-03-05</v>
+        <v>KIOSC events</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>f1150dec-f129-44b9-8159-1bf793beb7af</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Facility Maintenance Services</v>
+        <v>Discovery: Drones on Mars</v>
       </c>
       <c r="C5" t="str">
-        <v>SUP0004</v>
-      </c>
-      <c r="D5" t="str">
-        <v>3</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F5" t="str">
-        <v>David Wilson</v>
-      </c>
-      <c r="G5" t="str">
-        <v>david@facilitymaint.com</v>
-      </c>
-      <c r="H5" t="str">
-        <v>(03) 9555-3456</v>
-      </c>
-      <c r="I5" t="str">
-        <v>101 Maintenance Ave, Melbourne VIC 3000</v>
-      </c>
-      <c r="J5" t="str">
-        <v>45 678 901 234</v>
-      </c>
-      <c r="K5" t="str">
-        <v>30</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Facility maintenance and repairs - Contract ended</v>
-      </c>
-      <c r="M5" t="str">
-        <v>2023-01-20</v>
+        <v>KIOSC events</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>Professional Development Group</v>
+        <v>Discovery: Emergency Technology</v>
       </c>
       <c r="C6" t="str">
-        <v>SUP0005</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Jennifer Lee</v>
-      </c>
-      <c r="G6" t="str">
-        <v>jennifer@pdgroup.com</v>
-      </c>
-      <c r="H6" t="str">
-        <v>(03) 9555-7890</v>
-      </c>
-      <c r="I6" t="str">
-        <v>222 Training Blvd, Melbourne VIC 3000</v>
-      </c>
-      <c r="J6" t="str">
-        <v>56 789 012 345</v>
-      </c>
-      <c r="K6" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Discovery: Forensic Science: Crack the COVID Case</v>
+      </c>
+      <c r="C7" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Discovery: Forensics Science: Major Crime</v>
+      </c>
+      <c r="C8" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Discovery: Genetics and Microarrays</v>
+      </c>
+      <c r="C9" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Discovery: Green Energy Revolution</v>
+      </c>
+      <c r="C10" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Discovery: Hydrogen GRAND PRIX</v>
+      </c>
+      <c r="C11" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Discovery: Illuminated Transformational Design</v>
+      </c>
+      <c r="C12" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Discovery: LEGO Robotics</v>
+      </c>
+      <c r="C13" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Discovery: Logistic FAILs</v>
+      </c>
+      <c r="C14" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Discovery: Makey Music</v>
+      </c>
+      <c r="C15" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Discovery: Ocean Scratch 2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Discovery: OzGrav</v>
+      </c>
+      <c r="C17" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Discovery: Physics</v>
+      </c>
+      <c r="C18" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Discovery: Psychology Brain Tech</v>
+      </c>
+      <c r="C19" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Discovery: Scratch Ai</v>
+      </c>
+      <c r="C20" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Discovery: Sphero Space</v>
+      </c>
+      <c r="C21" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Discovery: STEM Communication Conference</v>
+      </c>
+      <c r="C22" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Discovery: STEM to the Rescue</v>
+      </c>
+      <c r="C23" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Discovery: Sustainable Futures</v>
+      </c>
+      <c r="C24" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Discovery: TECHSprint</v>
+      </c>
+      <c r="C25" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Discovery: Titration Analysis</v>
+      </c>
+      <c r="C26" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Discovery: TrashBot Challenge</v>
+      </c>
+      <c r="C27" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Biology UNIT 3 : DNA Manipulation and Genetic Technologies</v>
+      </c>
+      <c r="C28" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Biology UNIT 3: Photosynthesis and biochemical pathways</v>
+      </c>
+      <c r="C29" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Biology Unit 4: Evolution of Lemurs</v>
+      </c>
+      <c r="C30" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Chemistry UNIT 2: Analytical Techniques of Water</v>
+      </c>
+      <c r="C31" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Chemistry UNIT 4: Organic Compound</v>
+      </c>
+      <c r="C32" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Environmental Science Unit 2: Water Pollution</v>
+      </c>
+      <c r="C33" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Physics UNIT 2: Mission Gravity with OzGrav</v>
+      </c>
+      <c r="C34" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>VCES – ALL PROGRAMS BOOKED OUT!</v>
+      </c>
+      <c r="C35" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Discovery: LEGO Robotics</v>
+      </c>
+      <c r="C36" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Discovery: TrashBot Challenge</v>
+      </c>
+      <c r="C37" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>VCES: FIRST LEGO League</v>
+      </c>
+      <c r="C38" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>3D Design and Printing for all KLA’s</v>
+      </c>
+      <c r="C39" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Design 2 Innovate- Free Professional Learning at KIOSC</v>
+      </c>
+      <c r="C40" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Learn how laser-cutting can be implemented in your classroom.</v>
+      </c>
+      <c r="C41" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Power Mathematics / I.T with Open Data from AWS</v>
+      </c>
+      <c r="C42" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Science of Medicine</v>
+      </c>
+      <c r="C43" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Equipment Loan: B4 Computer Processor Kit</v>
+      </c>
+      <c r="C44" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Equipment Loan: Hydrogen Energy</v>
+      </c>
+      <c r="C45" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
         <v>45</v>
       </c>
-      <c r="L6" t="str">
-        <v>Staff training and development services</v>
-      </c>
-      <c r="M6" t="str">
-        <v>2023-02-25</v>
+      <c r="B46" t="str">
+        <v>Equipment Loan: Intelino Trains</v>
+      </c>
+      <c r="C46" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Equipment Loan: Pocket Labs</v>
+      </c>
+      <c r="C47" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Equipment Loan: Renewable Energy – Solar Car Physics</v>
+      </c>
+      <c r="C48" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Equipment Loan: Renewable Energy – Wind Energy</v>
+      </c>
+      <c r="C49" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Equipment Loan: River Story</v>
+      </c>
+      <c r="C50" t="str">
+        <v>KIOSC events</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Equipment Loan: Sphero Sprk+ with Sphero Soccer and Space Mat</v>
+      </c>
+      <c r="C51" t="str">
+        <v>KIOSC events</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,90 +2212,2121 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>description</v>
+        <v>code</v>
       </c>
       <c r="D1" t="str">
-        <v>budget</v>
+        <v>category</v>
+      </c>
+      <c r="E1" t="str">
+        <v>status</v>
+      </c>
+      <c r="F1" t="str">
+        <v>contactName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>email</v>
+      </c>
+      <c r="H1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="I1" t="str">
+        <v>address</v>
+      </c>
+      <c r="J1" t="str">
+        <v>abn</v>
+      </c>
+      <c r="K1" t="str">
+        <v>paymentTerms</v>
+      </c>
+      <c r="L1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="M1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="N1" t="str">
+        <v>modifiedBy</v>
+      </c>
+      <c r="O1" t="str">
+        <v>modifiedAt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
       </c>
       <c r="B2" t="str">
-        <v>General Operations</v>
+        <v>Amazon</v>
       </c>
       <c r="C2" t="str">
-        <v>Day-to-day operational expenses</v>
+        <v>SUP0001</v>
       </c>
       <c r="D2" t="str">
-        <v>250000</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F2" t="str">
+        <v>John Smith</v>
+      </c>
+      <c r="G2" t="str">
+        <v>john@techsolutions.com</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>12 345 678 901</v>
+      </c>
+      <c r="K2" t="str">
+        <v>30</v>
+      </c>
+      <c r="L2" t="str">
+        <v>various</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2023-01-15</v>
+      </c>
+      <c r="N2" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
       </c>
       <c r="B3" t="str">
-        <v>Outreach Program</v>
+        <v>Westlab</v>
       </c>
       <c r="C3" t="str">
-        <v>Community outreach and education</v>
+        <v>SUP0002</v>
       </c>
       <c r="D3" t="str">
-        <v>75000</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Sarah Johnson</v>
+      </c>
+      <c r="G3" t="str">
+        <v>sarah@officesupplies.com</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>23 456 789 012</v>
+      </c>
+      <c r="K3" t="str">
+        <v>14</v>
+      </c>
+      <c r="L3" t="str">
+        <v xml:space="preserve">lab </v>
+      </c>
+      <c r="M3" t="str">
+        <v>2023-02-10</v>
+      </c>
+      <c r="N3" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>664f112c-366a-44da-b9d4-06d41ae723b2</v>
       </c>
       <c r="B4" t="str">
-        <v>Research Initiative</v>
+        <v>Modern Teaching Aids</v>
       </c>
       <c r="C4" t="str">
-        <v>Research and development projects</v>
+        <v>SUP0003</v>
       </c>
       <c r="D4" t="str">
-        <v>120000</v>
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Michael Chen</v>
+      </c>
+      <c r="G4" t="str">
+        <v>michael@eduresources.com</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>34 567 890 123</v>
+      </c>
+      <c r="K4" t="str">
+        <v>30</v>
+      </c>
+      <c r="L4" t="str">
+        <v>various</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2023-03-05</v>
+      </c>
+      <c r="N4" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
+        <v>f1150dec-f129-44b9-8159-1bf793beb7af</v>
       </c>
       <c r="B5" t="str">
-        <v>Infrastructure</v>
+        <v>JB HIFI</v>
       </c>
       <c r="C5" t="str">
-        <v>Infrastructure maintenance and upgrades</v>
+        <v>SUP0004</v>
       </c>
       <c r="D5" t="str">
-        <v>180000</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Inactive</v>
+      </c>
+      <c r="F5" t="str">
+        <v>David Wilson</v>
+      </c>
+      <c r="G5" t="str">
+        <v>david@facilitymaint.com</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v>45 678 901 234</v>
+      </c>
+      <c r="K5" t="str">
+        <v>30</v>
+      </c>
+      <c r="L5" t="str">
+        <v>various</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2023-01-20</v>
+      </c>
+      <c r="N5" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Werko</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SUP0005</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Jennifer Lee</v>
+      </c>
+      <c r="G6" t="str">
+        <v>jennifer@pdgroup.com</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v>56 789 012 345</v>
+      </c>
+      <c r="K6" t="str">
+        <v>45</v>
+      </c>
+      <c r="L6" t="str">
+        <v>PPE</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2023-02-25</v>
+      </c>
+      <c r="N6" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>7e41b567-1cdc-4e09-b690-5b2581cfef76</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Matt Raw</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SUP0006</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Matt Raw</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Matt Raw</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v>56 789 012 345</v>
+      </c>
+      <c r="K7" t="str">
+        <v>45</v>
+      </c>
+      <c r="L7" t="str">
+        <v>website</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2023-02-26</v>
+      </c>
+      <c r="N7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>a0e58df3-b7c5-4fc1-9843-12f8a395eb67</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Southern Biological</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SUP0007</v>
+      </c>
+      <c r="D8" t="str">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Mark Reynolds</v>
+      </c>
+      <c r="G8" t="str">
+        <v>orders@southernbiological.com</v>
+      </c>
+      <c r="H8" t="str">
+        <v>03 9877 4597</v>
+      </c>
+      <c r="I8" t="str">
+        <v>5/81 Brunel Road, Seaford VIC 3198</v>
+      </c>
+      <c r="J8" t="str">
+        <v>79 007 465 923</v>
+      </c>
+      <c r="K8" t="str">
+        <v>30</v>
+      </c>
+      <c r="L8" t="str">
+        <v>lab</v>
+      </c>
+      <c r="M8" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O8" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>b1f49e74-c8d6-42a3-b5e7-23a9c85f4b12</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Coles/Woolworths</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SUP0008</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Business Account</v>
+      </c>
+      <c r="G9" t="str">
+        <v>business@colesww.com.au</v>
+      </c>
+      <c r="H9" t="str">
+        <v>1800 061 562</v>
+      </c>
+      <c r="I9" t="str">
+        <v>800 Toorak Road, Hawthorn East VIC 3123</v>
+      </c>
+      <c r="J9" t="str">
+        <v>26 004 789 654</v>
+      </c>
+      <c r="K9" t="str">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <v>various</v>
+      </c>
+      <c r="M9" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O9" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>c2d38f65-d9e7-43b4-a6f8-34b0d76e5c23</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Supagas</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SUP0009</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Technical Support</v>
+      </c>
+      <c r="G10" t="str">
+        <v>orders@supagas.net.au</v>
+      </c>
+      <c r="H10" t="str">
+        <v>13 78 72</v>
+      </c>
+      <c r="I10" t="str">
+        <v>5 Benson Road, Ingleburn NSW 2565</v>
+      </c>
+      <c r="J10" t="str">
+        <v>50 074 008 496</v>
+      </c>
+      <c r="K10" t="str">
+        <v>30</v>
+      </c>
+      <c r="L10" t="str">
+        <v>gas for lab</v>
+      </c>
+      <c r="M10" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N10" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O10" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>d3e27g56-e0f8-44c5-b7g9-45c1e87f6d34</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Badgeworld</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SUP0010</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Sales Department</v>
+      </c>
+      <c r="G11" t="str">
+        <v>sales@badgeworld.com.au</v>
+      </c>
+      <c r="H11" t="str">
+        <v>1300 122 344</v>
+      </c>
+      <c r="I11" t="str">
+        <v>25 Production Drive, Campbellfield VIC 3061</v>
+      </c>
+      <c r="J11" t="str">
+        <v>61 129 876 543</v>
+      </c>
+      <c r="K11" t="str">
+        <v>14</v>
+      </c>
+      <c r="L11" t="str">
+        <v>name badges</v>
+      </c>
+      <c r="M11" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N11" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O11" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>e4f16h47-f1g9-45d6-c8h0-56d2f98g7e45</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Laboratory Systems</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SUP0011</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Service Team</v>
+      </c>
+      <c r="G12" t="str">
+        <v>service@labsystems.com.au</v>
+      </c>
+      <c r="H12" t="str">
+        <v>03 9879 5005</v>
+      </c>
+      <c r="I12" t="str">
+        <v>109 Ferntree Gully Road, Mt Waverley VIC 3149</v>
+      </c>
+      <c r="J12" t="str">
+        <v>72 004 196 354</v>
+      </c>
+      <c r="K12" t="str">
+        <v>30</v>
+      </c>
+      <c r="L12" t="str">
+        <v>service of lab equip</v>
+      </c>
+      <c r="M12" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N12" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O12" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>f5g05i38-g2h0-46e7-d9i1-67e3g09h8f56</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Horizon Educational</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SUP0012</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Education Manager</v>
+      </c>
+      <c r="G13" t="str">
+        <v>info@horizonedu.com.au</v>
+      </c>
+      <c r="H13" t="str">
+        <v>03 9555 4320</v>
+      </c>
+      <c r="I13" t="str">
+        <v>12 Innovation Parkway, Birtinya QLD 4575</v>
+      </c>
+      <c r="J13" t="str">
+        <v>83 118 549 763</v>
+      </c>
+      <c r="K13" t="str">
+        <v>30</v>
+      </c>
+      <c r="L13" t="str">
+        <v>H2GP</v>
+      </c>
+      <c r="M13" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N13" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O13" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>g6h94j29-h3i1-47f8-e0j2-78f4h10i9g67</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Uber</v>
+      </c>
+      <c r="C14" t="str">
+        <v>SUP0013</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Business Account</v>
+      </c>
+      <c r="G14" t="str">
+        <v>business@uber.com</v>
+      </c>
+      <c r="H14" t="str">
+        <v>1300 091 272</v>
+      </c>
+      <c r="I14" t="str">
+        <v>1 Bennelong Point, Sydney NSW 2000</v>
+      </c>
+      <c r="J14" t="str">
+        <v>94 160 299 865</v>
+      </c>
+      <c r="K14" t="str">
+        <v>7</v>
+      </c>
+      <c r="L14" t="str">
+        <v>delivery of materials</v>
+      </c>
+      <c r="M14" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N14" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O14" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>h7i83k10-i4j2-48g9-f1k3-89g5i21j0h78</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kmart</v>
+      </c>
+      <c r="C15" t="str">
+        <v>SUP0014</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Corporate Sales</v>
+      </c>
+      <c r="G15" t="str">
+        <v>business@kmart.com.au</v>
+      </c>
+      <c r="H15" t="str">
+        <v>1800 124 125</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Chadstone Shopping Centre, 1341 Dandenong Road, Chadstone VIC 3148</v>
+      </c>
+      <c r="J15" t="str">
+        <v>05 004 700 485</v>
+      </c>
+      <c r="K15" t="str">
+        <v>14</v>
+      </c>
+      <c r="L15" t="str">
+        <v>various</v>
+      </c>
+      <c r="M15" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N15" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O15" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>i8j72l01-j5k3-49h0-g2l4-90h6j32k1i89</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rowville Secondary</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SUP0015</v>
+      </c>
+      <c r="D16" t="str">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Staff Development</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Training and professional development</v>
-      </c>
-      <c r="D6" t="str">
-        <v>50000</v>
+      <c r="E16" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Finance Office</v>
+      </c>
+      <c r="G16" t="str">
+        <v>accounts@rowvillesc.vic.edu.au</v>
+      </c>
+      <c r="H16" t="str">
+        <v>03 9755 4555</v>
+      </c>
+      <c r="I16" t="str">
+        <v>9-25 Pinehill Drive, Rowville VIC 3178</v>
+      </c>
+      <c r="J16" t="str">
+        <v>16 169 871 671</v>
+      </c>
+      <c r="K16" t="str">
+        <v>30</v>
+      </c>
+      <c r="L16" t="str">
+        <v>bus reimbursement and leanne salary</v>
+      </c>
+      <c r="M16" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N16" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O16" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>j9k61m92-k6l4-50i1-h3m5-01i7k43l2j90</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sparkchart</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SUP0016</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Customer Success</v>
+      </c>
+      <c r="G17" t="str">
+        <v>help@sparkchart.com</v>
+      </c>
+      <c r="H17" t="str">
+        <v>1300 789 654</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Online Service</v>
+      </c>
+      <c r="J17" t="str">
+        <v>27 145 678 321</v>
+      </c>
+      <c r="K17" t="str">
+        <v>14</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Surveys</v>
+      </c>
+      <c r="M17" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N17" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O17" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>k0l50n83-l7m5-51j2-i4n6-12j8l54m3k01</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Makedo</v>
+      </c>
+      <c r="C18" t="str">
+        <v>SUP0017</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Sales Team</v>
+      </c>
+      <c r="G18" t="str">
+        <v>orders@makedo.com.au</v>
+      </c>
+      <c r="H18" t="str">
+        <v>02 8294 5711</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Suite 2, 19-23 Prospect Street, Box Hill VIC 3128</v>
+      </c>
+      <c r="J18" t="str">
+        <v>38 156 789 432</v>
+      </c>
+      <c r="K18" t="str">
+        <v>30</v>
+      </c>
+      <c r="L18" t="str">
+        <v>equipment</v>
+      </c>
+      <c r="M18" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O18" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>l1m49o74-m8n6-52k3-j5o7-23k9m65n4l12</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Laftech</v>
+      </c>
+      <c r="C19" t="str">
+        <v>SUP0018</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Service Department</v>
+      </c>
+      <c r="G19" t="str">
+        <v>service@laftech.com.au</v>
+      </c>
+      <c r="H19" t="str">
+        <v>03 9544 6655</v>
+      </c>
+      <c r="I19" t="str">
+        <v>28 Fortitude Drive, Seaford VIC 3198</v>
+      </c>
+      <c r="J19" t="str">
+        <v>49 167 890 543</v>
+      </c>
+      <c r="K19" t="str">
+        <v>30</v>
+      </c>
+      <c r="L19" t="str">
+        <v>service of lab equip</v>
+      </c>
+      <c r="M19" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N19" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O19" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>m2n38p65-n9o7-53l4-k6p8-34l0n76o5m23</v>
+      </c>
+      <c r="B20" t="str">
+        <v>BioRad</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SUP0019</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Education Specialist</v>
+      </c>
+      <c r="G20" t="str">
+        <v>education@bio-rad.com</v>
+      </c>
+      <c r="H20" t="str">
+        <v>1800 224 354</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Unit 1, 446 Blackshaws Road, Altona North VIC 3025</v>
+      </c>
+      <c r="J20" t="str">
+        <v>50 007 901 654</v>
+      </c>
+      <c r="K20" t="str">
+        <v>30</v>
+      </c>
+      <c r="L20" t="str">
+        <v>lab</v>
+      </c>
+      <c r="M20" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O20" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>n3o27q56-o0p8-54m5-l7q9-45m1o87p6n34</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Bayswater SC</v>
+      </c>
+      <c r="C21" t="str">
+        <v>SUP0020</v>
+      </c>
+      <c r="D21" t="str">
+        <v>5</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Finance Office</v>
+      </c>
+      <c r="G21" t="str">
+        <v>accounts@bayswatersc.vic.edu.au</v>
+      </c>
+      <c r="H21" t="str">
+        <v>03 8720 7555</v>
+      </c>
+      <c r="I21" t="str">
+        <v>31 Murray Road, Bayswater North VIC 3153</v>
+      </c>
+      <c r="J21" t="str">
+        <v>61 189 012 765</v>
+      </c>
+      <c r="K21" t="str">
+        <v>30</v>
+      </c>
+      <c r="L21" t="str">
+        <v>bus reimbursement</v>
+      </c>
+      <c r="M21" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N21" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O21" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>o4p16r47-p1q9-55n6-m8r0-56n2p98q7o45</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Cubic Technology</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SUP0021</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="G22" t="str">
+        <v>sales@cubictech.com.au</v>
+      </c>
+      <c r="H22" t="str">
+        <v>03 9580 8122</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Factory 3, 5 Lindaway Place, Tullamarine VIC 3043</v>
+      </c>
+      <c r="J22" t="str">
+        <v>72 190 123 876</v>
+      </c>
+      <c r="K22" t="str">
+        <v>14</v>
+      </c>
+      <c r="L22" t="str">
+        <v>filament</v>
+      </c>
+      <c r="M22" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N22" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O22" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>p5q05s38-q2r0-56o7-n9s1-67o3q09r8p56</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Imaginables</v>
+      </c>
+      <c r="C23" t="str">
+        <v>SUP0022</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Customer Service</v>
+      </c>
+      <c r="G23" t="str">
+        <v>hello@imaginables.com.au</v>
+      </c>
+      <c r="H23" t="str">
+        <v>03 9028 5789</v>
+      </c>
+      <c r="I23" t="str">
+        <v>10 Corporate Drive, Moorabbin VIC 3189</v>
+      </c>
+      <c r="J23" t="str">
+        <v>83 201 234 987</v>
+      </c>
+      <c r="K23" t="str">
+        <v>30</v>
+      </c>
+      <c r="L23" t="str">
+        <v>3D printer</v>
+      </c>
+      <c r="M23" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O23" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>q6r94t29-r3s1-57p8-o0t2-78p4r10s9q67</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Keysborough Secondary</v>
+      </c>
+      <c r="C24" t="str">
+        <v>SUP0023</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Finance Department</v>
+      </c>
+      <c r="G24" t="str">
+        <v>accounts@keysboroughsc.vic.edu.au</v>
+      </c>
+      <c r="H24" t="str">
+        <v>03 9798 1877</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Acacia Campus, Janine Road, Keysborough VIC 3173</v>
+      </c>
+      <c r="J24" t="str">
+        <v>94 212 345 098</v>
+      </c>
+      <c r="K24" t="str">
+        <v>30</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Bus reimbursement</v>
+      </c>
+      <c r="M24" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N24" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O24" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>r7s83u10-s4t2-58q9-p1u3-89q5s21t0r78</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CI Scientific</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SUP0024</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Service Division</v>
+      </c>
+      <c r="G25" t="str">
+        <v>service@ciscientific.com.au</v>
+      </c>
+      <c r="H25" t="str">
+        <v>03 9580 2722</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Unit 4, 621 Whitehorse Road, Mitcham VIC 3132</v>
+      </c>
+      <c r="J25" t="str">
+        <v>05 223 456 109</v>
+      </c>
+      <c r="K25" t="str">
+        <v>30</v>
+      </c>
+      <c r="L25" t="str">
+        <v>service of lab equip</v>
+      </c>
+      <c r="M25" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N25" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O25" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>s8t72v01-t5u3-59r0-q2v4-90r6t32u1s89</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Brickulum</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SUP0025</v>
+      </c>
+      <c r="D26" t="str">
+        <v>3</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Ryan Miller</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ryan@brickulum.com.au</v>
+      </c>
+      <c r="H26" t="str">
+        <v>0412 345 678</v>
+      </c>
+      <c r="I26" t="str">
+        <v>15 Lego Street, Ringwood VIC 3134</v>
+      </c>
+      <c r="J26" t="str">
+        <v>16 234 567 210</v>
+      </c>
+      <c r="K26" t="str">
+        <v>14</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Ryan teaching</v>
+      </c>
+      <c r="M26" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N26" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O26" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>t9u61w92-u6v4-60s1-r3w5-01s7u43v2t90</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Cobram Secondary</v>
+      </c>
+      <c r="C27" t="str">
+        <v>SUP0026</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Finance Office</v>
+      </c>
+      <c r="G27" t="str">
+        <v>accounts@cobramsc.vic.edu.au</v>
+      </c>
+      <c r="H27" t="str">
+        <v>03 5871 1700</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Campbell Road, Cobram VIC 3644</v>
+      </c>
+      <c r="J27" t="str">
+        <v>27 245 678 321</v>
+      </c>
+      <c r="K27" t="str">
+        <v>30</v>
+      </c>
+      <c r="L27" t="str">
+        <v>H2GP</v>
+      </c>
+      <c r="M27" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N27" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O27" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>u0v50x83-v7w5-61t2-s4x6-12t8v54w3u01</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Bunnings</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SUP0027</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Business Team</v>
+      </c>
+      <c r="G28" t="str">
+        <v>business@bunnings.com.au</v>
+      </c>
+      <c r="H28" t="str">
+        <v>1300 554 688</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Various locations</v>
+      </c>
+      <c r="J28" t="str">
+        <v>38 254 789 432</v>
+      </c>
+      <c r="K28" t="str">
+        <v>14</v>
+      </c>
+      <c r="L28" t="str">
+        <v>various</v>
+      </c>
+      <c r="M28" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N28" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O28" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>v1w49y74-w8x6-62u3-t5y7-23u9w65x4v12</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Fairhills High</v>
+      </c>
+      <c r="C29" t="str">
+        <v>SUP0028</v>
+      </c>
+      <c r="D29" t="str">
+        <v>5</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Finance Department</v>
+      </c>
+      <c r="G29" t="str">
+        <v>accounts@fairhillshs.vic.edu.au</v>
+      </c>
+      <c r="H29" t="str">
+        <v>03 9758 5022</v>
+      </c>
+      <c r="I29" t="str">
+        <v>330 Scoresby Road, Knoxfield VIC 3180</v>
+      </c>
+      <c r="J29" t="str">
+        <v>49 265 890 543</v>
+      </c>
+      <c r="K29" t="str">
+        <v>30</v>
+      </c>
+      <c r="L29" t="str">
+        <v>bus reimbursement</v>
+      </c>
+      <c r="M29" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N29" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O29" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>w2x38z65-x9y7-63v4-u6z8-34v0x76y5w23</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Boronia K-12</v>
+      </c>
+      <c r="C30" t="str">
+        <v>SUP0029</v>
+      </c>
+      <c r="D30" t="str">
+        <v>5</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Business Manager</v>
+      </c>
+      <c r="G30" t="str">
+        <v>business.manager@boroniak12.vic.edu.au</v>
+      </c>
+      <c r="H30" t="str">
+        <v>03 9760 4900</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Rangeview Road, Boronia VIC 3155</v>
+      </c>
+      <c r="J30" t="str">
+        <v>50 276 901 654</v>
+      </c>
+      <c r="K30" t="str">
+        <v>30</v>
+      </c>
+      <c r="L30" t="str">
+        <v>bus reimbursement</v>
+      </c>
+      <c r="M30" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N30" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O30" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>x3y27a56-y0z8-64w5-v7a9-45w1y87z6x34</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Wantirna College</v>
+      </c>
+      <c r="C31" t="str">
+        <v>SUP0030</v>
+      </c>
+      <c r="D31" t="str">
+        <v>5</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Finance Office</v>
+      </c>
+      <c r="G31" t="str">
+        <v>accounts@wantirnasc.vic.edu.au</v>
+      </c>
+      <c r="H31" t="str">
+        <v>03 9801 9700</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Harold Street, Wantirna VIC 3152</v>
+      </c>
+      <c r="J31" t="str">
+        <v>61 287 012 765</v>
+      </c>
+      <c r="K31" t="str">
+        <v>30</v>
+      </c>
+      <c r="L31" t="str">
+        <v>bus reimbursement</v>
+      </c>
+      <c r="M31" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N31" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O31" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>y4z16b47-z1a9-65x6-w8b0-56x2z98a7y45</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Scoresby Secondary</v>
+      </c>
+      <c r="C32" t="str">
+        <v>SUP0031</v>
+      </c>
+      <c r="D32" t="str">
+        <v>5</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Finance Department</v>
+      </c>
+      <c r="G32" t="str">
+        <v>accounts@scoresbysc.vic.edu.au</v>
+      </c>
+      <c r="H32" t="str">
+        <v>03 9765 1066</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Cavell Street, Scoresby VIC 3179</v>
+      </c>
+      <c r="J32" t="str">
+        <v>72 298 123 876</v>
+      </c>
+      <c r="K32" t="str">
+        <v>30</v>
+      </c>
+      <c r="L32" t="str">
+        <v>bus reimbursement</v>
+      </c>
+      <c r="M32" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N32" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O32" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>z5a05c38-a2b0-66y7-x9c1-67y3a09b8z56</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Core Electronics</v>
+      </c>
+      <c r="C33" t="str">
+        <v>SUP0032</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Education Team</v>
+      </c>
+      <c r="G33" t="str">
+        <v>education@coreelectronics.com.au</v>
+      </c>
+      <c r="H33" t="str">
+        <v>02 4911 9025</v>
+      </c>
+      <c r="I33" t="str">
+        <v>5/53 Kalaf Avenue, Morisset NSW 2264</v>
+      </c>
+      <c r="J33" t="str">
+        <v>83 309 234 987</v>
+      </c>
+      <c r="K33" t="str">
+        <v>14</v>
+      </c>
+      <c r="L33" t="str">
+        <v>microbits</v>
+      </c>
+      <c r="M33" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N33" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O33" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>a6b94d29-b3c1-67z8-y0d2-78z4b10c9a67</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Igloo Vision</v>
+      </c>
+      <c r="C34" t="str">
+        <v>SUP0033</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Technical Support</v>
+      </c>
+      <c r="G34" t="str">
+        <v>support@igloovision.com</v>
+      </c>
+      <c r="H34" t="str">
+        <v>1300 467 566</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Suite 3, 249 Bouverie Street, Carlton VIC 3053</v>
+      </c>
+      <c r="J34" t="str">
+        <v>94 310 345 098</v>
+      </c>
+      <c r="K34" t="str">
+        <v>30</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Igloo</v>
+      </c>
+      <c r="M34" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N34" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O34" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>b7c83e10-c4d2-68a9-z1e3-89a5c21d0b78</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Instructure</v>
+      </c>
+      <c r="C35" t="str">
+        <v>SUP0034</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Account Manager</v>
+      </c>
+      <c r="G35" t="str">
+        <v>education@instructure.com</v>
+      </c>
+      <c r="H35" t="str">
+        <v>02 8066 0606</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Online Services</v>
+      </c>
+      <c r="J35" t="str">
+        <v>05 321 456 109</v>
+      </c>
+      <c r="K35" t="str">
+        <v>30</v>
+      </c>
+      <c r="L35" t="str">
+        <v>online services</v>
+      </c>
+      <c r="M35" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N35" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O35" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>c8d72f01-d5e3-69b0-a2f4-90b6d32e1c89</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CoSpaces</v>
+      </c>
+      <c r="C36" t="str">
+        <v>SUP0035</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Education Support</v>
+      </c>
+      <c r="G36" t="str">
+        <v>edu@cospaces.io</v>
+      </c>
+      <c r="H36" t="str">
+        <v>+49 30 555 7821</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Online Services</v>
+      </c>
+      <c r="J36" t="str">
+        <v>16 332 567 210</v>
+      </c>
+      <c r="K36" t="str">
+        <v>14</v>
+      </c>
+      <c r="L36" t="str">
+        <v>online services</v>
+      </c>
+      <c r="M36" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N36" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O36" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>d9e61g92-e6f4-70c1-b3g5-01c7e43f2d90</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Telstra</v>
+      </c>
+      <c r="C37" t="str">
+        <v>SUP0036</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Business Support</v>
+      </c>
+      <c r="G37" t="str">
+        <v>business@telstra.com.au</v>
+      </c>
+      <c r="H37" t="str">
+        <v>13 20 00</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Level 41, 242 Exhibition Street, Melbourne VIC 3000</v>
+      </c>
+      <c r="J37" t="str">
+        <v>33 051 775 556</v>
+      </c>
+      <c r="K37" t="str">
+        <v>30</v>
+      </c>
+      <c r="L37" t="str">
+        <v>online services</v>
+      </c>
+      <c r="M37" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O37" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>e0f50h83-f7g5-71d2-c4h6-12d8f54g3e01</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Officeworks</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SUP0037</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Business Team</v>
+      </c>
+      <c r="G38" t="str">
+        <v>business@officeworks.com.au</v>
+      </c>
+      <c r="H38" t="str">
+        <v>1300 633 423</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Various locations</v>
+      </c>
+      <c r="J38" t="str">
+        <v>26 004 763 526</v>
+      </c>
+      <c r="K38" t="str">
+        <v>14</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Stationery</v>
+      </c>
+      <c r="M38" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N38" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O38" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>f1g49i74-g8h6-72e3-d5i7-23e9g65h4f12</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Winc</v>
+      </c>
+      <c r="C39" t="str">
+        <v>SUP0038</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Account Manager</v>
+      </c>
+      <c r="G39" t="str">
+        <v>accounts@winc.com.au</v>
+      </c>
+      <c r="H39" t="str">
+        <v>13 26 44</v>
+      </c>
+      <c r="I39" t="str">
+        <v>463 Williamstown Road, Port Melbourne VIC 3207</v>
+      </c>
+      <c r="J39" t="str">
+        <v>65 001 644 484</v>
+      </c>
+      <c r="K39" t="str">
+        <v>30</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Stationery</v>
+      </c>
+      <c r="M39" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N39" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O39" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>g2h38j65-h9i7-73f4-e6j8-34f0h76i5g23</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Pakronics</v>
+      </c>
+      <c r="C40" t="str">
+        <v>SUP0039</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Sales Team</v>
+      </c>
+      <c r="G40" t="str">
+        <v>sales@pakronics.com.au</v>
+      </c>
+      <c r="H40" t="str">
+        <v>03 9988 6830</v>
+      </c>
+      <c r="I40" t="str">
+        <v>6A Sigma Drive, Croydon South VIC 3136</v>
+      </c>
+      <c r="J40" t="str">
+        <v>87 623 478 991</v>
+      </c>
+      <c r="K40" t="str">
+        <v>14</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="M40" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N40" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O40" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>h3i27k56-i0j8-74g5-f7k9-45g1i87j6h34</v>
+      </c>
+      <c r="B41" t="str">
+        <v>FCM</v>
+      </c>
+      <c r="C41" t="str">
+        <v>SUP0040</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Travel Consultant</v>
+      </c>
+      <c r="G41" t="str">
+        <v>education.travel@fcmtravel.com.au</v>
+      </c>
+      <c r="H41" t="str">
+        <v>1300 557 854</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Level 5, 436 St Kilda Road, Melbourne VIC 3004</v>
+      </c>
+      <c r="J41" t="str">
+        <v>70 161 889 206</v>
+      </c>
+      <c r="K41" t="str">
+        <v>30</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="M41" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N41" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O41" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>i4j16l47-j1k9-75h6-g8l0-56h2j98k7i45</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Mastec</v>
+      </c>
+      <c r="C42" t="str">
+        <v>SUP0041</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Customer Service</v>
+      </c>
+      <c r="G42" t="str">
+        <v>info@mastec.com.au</v>
+      </c>
+      <c r="H42" t="str">
+        <v>03 9338 1880</v>
+      </c>
+      <c r="I42" t="str">
+        <v>5 Merino Court, East Keilor VIC 3033</v>
+      </c>
+      <c r="J42" t="str">
+        <v>72 376 552 907</v>
+      </c>
+      <c r="K42" t="str">
+        <v>30</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Mini bins</v>
+      </c>
+      <c r="M42" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N42" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O42" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>j5k05m38-k2l0-76i7-h9m1-67i3k09l8j56</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Little Bird Electronics</v>
+      </c>
+      <c r="C43" t="str">
+        <v>SUP0042</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Sales Department</v>
+      </c>
+      <c r="G43" t="str">
+        <v>hello@littlebird.com.au</v>
+      </c>
+      <c r="H43" t="str">
+        <v>02 9051 7419</v>
+      </c>
+      <c r="I43" t="str">
+        <v>98 York Street, Sydney NSW 2000</v>
+      </c>
+      <c r="J43" t="str">
+        <v>41 604 261 863</v>
+      </c>
+      <c r="K43" t="str">
+        <v>14</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="M43" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N43" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O43" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>k6l94n29-l3m1-77j8-i0n2-78j4l10m9k67</v>
+      </c>
+      <c r="B44" t="str">
+        <v>South East Plastics</v>
+      </c>
+      <c r="C44" t="str">
+        <v>SUP0043</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Order Team</v>
+      </c>
+      <c r="G44" t="str">
+        <v>orders@southeastplastics.com.au</v>
+      </c>
+      <c r="H44" t="str">
+        <v>03 9544 6111</v>
+      </c>
+      <c r="I44" t="str">
+        <v>15 Commercial Drive, Dandenong South VIC 3175</v>
+      </c>
+      <c r="J44" t="str">
+        <v>31 765 893 102</v>
+      </c>
+      <c r="K44" t="str">
+        <v>30</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Acrylic</v>
+      </c>
+      <c r="M44" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N44" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O44" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>l7m83o10-m4n2-78k9-j1o3-89k5m21n0l78</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Social Engine</v>
+      </c>
+      <c r="C45" t="str">
+        <v>SUP0044</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Catering Manager</v>
+      </c>
+      <c r="G45" t="str">
+        <v>events@socialengine.com.au</v>
+      </c>
+      <c r="H45" t="str">
+        <v>03 9017 3829</v>
+      </c>
+      <c r="I45" t="str">
+        <v>240 Johnston Street, Fitzroy VIC 3065</v>
+      </c>
+      <c r="J45" t="str">
+        <v>89 621 754 398</v>
+      </c>
+      <c r="K45" t="str">
+        <v>14</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Catering</v>
+      </c>
+      <c r="M45" t="str">
+        <v>4/29/25</v>
+      </c>
+      <c r="N45" t="str">
+        <v>admin</v>
+      </c>
+      <c r="O45" t="str">
+        <v>2025-04-29T03:15:00.000Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O45"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1294,6 +4391,120 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>paymentCenterId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>year</v>
+      </c>
+      <c r="D1" t="str">
+        <v>budget</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>budget-1-2025</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025</v>
+      </c>
+      <c r="D2" t="str">
+        <v>25000</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2025-05-01T00:09:40.069Z</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2025-05-01T00:09:40.069Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>budget-2-2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="str">
+        <v>25000</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2025-05-01T00:09:40.139Z</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2025-05-01T00:09:40.139Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>budget-3-2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025</v>
+      </c>
+      <c r="D4" t="str">
+        <v>25000</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2025-05-01T00:09:40.217Z</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2025-05-01T00:09:40.217Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>budget-4-2025</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025</v>
+      </c>
+      <c r="D5" t="str">
+        <v>25000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-05-01T00:09:40.300Z</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-05-01T00:09:40.300Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1416,7 +4627,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1426,111 +4637,2776 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>username</v>
+        <v>date</v>
       </c>
       <c r="C1" t="str">
-        <v>name</v>
+        <v>description</v>
       </c>
       <c r="D1" t="str">
-        <v>email</v>
+        <v>supplier</v>
       </c>
       <c r="E1" t="str">
-        <v>role</v>
+        <v>amount</v>
       </c>
       <c r="F1" t="str">
-        <v>permissions</v>
+        <v>paymentType</v>
       </c>
       <c r="G1" t="str">
-        <v>modifiedBy</v>
+        <v>paymentCenter</v>
       </c>
       <c r="H1" t="str">
-        <v>modifiedAt</v>
+        <v>program</v>
       </c>
       <c r="I1" t="str">
         <v>status</v>
       </c>
+      <c r="J1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="K1" t="str">
+        <v>invoiceDate</v>
+      </c>
+      <c r="L1" t="str">
+        <v>paymentDate</v>
+      </c>
+      <c r="M1" t="str">
+        <v>createdBy</v>
+      </c>
+      <c r="N1" t="str">
+        <v>createdAt</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>01bd888d-bf78-4574-88a6-70bfda87fbcf</v>
       </c>
       <c r="B2" t="str">
-        <v>admin</v>
+        <v>2023-01-20</v>
       </c>
       <c r="C2" t="str">
-        <v>Lisa Williams</v>
+        <v>Computer Equipment Purchase</v>
       </c>
       <c r="D2" t="str">
-        <v>admin@example.com</v>
+        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
       </c>
       <c r="E2" t="str">
-        <v>admin</v>
+        <v>5699.99</v>
+      </c>
+      <c r="F2" t="str">
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>admin</v>
+        <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-04-24T00:54:41.829Z</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>active</v>
+        <v>Paid</v>
+      </c>
+      <c r="J2" t="str">
+        <v>New laptops for staff</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2023-01-25</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2023-02-10</v>
+      </c>
+      <c r="M2" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2025-04-23T23:40:59.702Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>226385ed-d459-469e-a226-cd36a450178f</v>
       </c>
       <c r="B3" t="str">
-        <v>user</v>
+        <v>2023-02-05</v>
       </c>
       <c r="C3" t="str">
-        <v>Regular User</v>
+        <v>Office Supplies</v>
       </c>
       <c r="D3" t="str">
-        <v>user@example.com</v>
+        <v>11139606-2bf4-4e27-a5e6-581233416593</v>
       </c>
       <c r="E3" t="str">
-        <v>user</v>
+        <v>824.5</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2</v>
       </c>
       <c r="G3" t="str">
-        <v>admin</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>2025-04-24T00:54:58.039Z</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
-        <v>active</v>
+        <v>Paid</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Monthly office supplies</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2023-02-05</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2023-02-05</v>
+      </c>
+      <c r="M3" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N3" t="str">
+        <v>2023-02-05T10:15:00.000Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>7776af38-6226-4f6a-9d0e-68a9a692852f</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-02-15</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Educational Materials</v>
+      </c>
+      <c r="D4" t="str">
+        <v>f99c571b-2d0d-48a8-b6fa-ec0a2bc491c9</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3450</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Materials for outreach program</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2023-02-20</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="M4" t="str">
+        <v>user</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2023-02-15T14:00:00.000Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>9034c974-68bd-4206-8930-6ca8964e4acc</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Staff Training Workshop</v>
+      </c>
+      <c r="D5" t="str">
+        <v>f70c0036-d2f2-49f2-b82b-9e25b4857a76</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2750</v>
+      </c>
+      <c r="F5" t="str">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>viewer</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Viewer</v>
-      </c>
-      <c r="D4" t="str">
-        <v>viewer@example.com</v>
-      </c>
-      <c r="E4" t="str">
-        <v>viewer</v>
-      </c>
-      <c r="G4" t="str">
-        <v>admin</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2025-04-24T00:55:18.315Z</v>
-      </c>
-      <c r="I4" t="str">
-        <v>active</v>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Leadership training for department heads</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N5" t="str">
+        <v>2023-03-01T11:45:00.000Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>01f00479-5015-4a32-a1a0-645bc48ab2ed</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2023-03-10</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Equipment Maintenance</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2bdb9f5a-ad0a-4722-9bbd-1568a4d448c8</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>4</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Quarterly equipment maintenance</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2023-03-15</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2023-03-30</v>
+      </c>
+      <c r="M6" t="str">
+        <v>user</v>
+      </c>
+      <c r="N6" t="str">
+        <v>2023-03-10T13:20:00.000Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>f4fd48f3-4ba7-4b26-831c-0998237d8676</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2023-03-20</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Software Licenses</v>
+      </c>
+      <c r="D7" t="str">
+        <v>38d55a28-9ed7-4fab-b86e-cca27fce1cdb</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3599</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Annual software license renewal</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2023-03-20</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2023-03-20</v>
+      </c>
+      <c r="M7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N7" t="str">
+        <v>2023-03-20T09:10:00.000Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>cb71bb68-5515-4d68-88eb-b23dc86b6d6a</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2025-04-23</v>
+      </c>
+      <c r="C8" t="str">
+        <v>film strip</v>
+      </c>
+      <c r="D8" t="str">
+        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
+      </c>
+      <c r="E8" t="str">
+        <v>6573</v>
+      </c>
+      <c r="F8" t="str">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2025-04-23</v>
+      </c>
+      <c r="M8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N8" t="str">
+        <v>2025-04-23T23:45:14.121Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>5f9cabb6-afe8-4dcc-9012-94b625a910f5</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="C9" t="str">
+        <v xml:space="preserve">3D printing </v>
+      </c>
+      <c r="D9" t="str">
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+      </c>
+      <c r="E9" t="str">
+        <v>180</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J9" t="str">
+        <v>PETG Filament. General Purpose 3D Printing Material.</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="M9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N9" t="str">
+        <v>2025-04-29T00:52:30.091Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>4eec161e-af14-46cb-afff-a8c46f2d5bd3</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="C10" t="str">
+        <v>film strip adding</v>
+      </c>
+      <c r="D10" t="str">
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+      </c>
+      <c r="E10" t="str">
+        <v>700</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="M10" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N10" t="str">
+        <v>2025-04-29T04:19:09.962Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2ad67afa-7deb-4d27-a738-21b5e4ae58b8</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3D Printing material</v>
+      </c>
+      <c r="D11" t="str">
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+      </c>
+      <c r="E11" t="str">
+        <v>48</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J11" t="str">
+        <v xml:space="preserve">Nylon (PA) Engineering Grade Material. </v>
+      </c>
+      <c r="K11" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="M11" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N11" t="str">
+        <v>2025-04-29T04:21:09.277Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>a1c23d45-e67f-489a-bcde-f0123456789a</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Lab Equipment</v>
+      </c>
+      <c r="D12" t="str">
+        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
+      </c>
+      <c r="E12" t="str">
+        <v>3450.75</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>3</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Annual lab equipment upgrade</v>
+      </c>
+      <c r="K12" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="L12" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="M12" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N12" t="str">
+        <v>2025-04-29T05:30:00.000Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>b2d34e56-f78g-490b-cdef-g1234567890b</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cloud Services</v>
+      </c>
+      <c r="D13" t="str">
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+      </c>
+      <c r="E13" t="str">
+        <v>899.99</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>5</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J13" t="str">
+        <v>AWS computing resources</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="M13" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N13" t="str">
+        <v>2025-04-29T05:31:00.000Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>c3e45f67-g89h-491c-defg-h2345678901c</v>
+      </c>
+      <c r="B14" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Teaching Materials</v>
+      </c>
+      <c r="D14" t="str">
+        <v>664f112c-366a-44da-b9d4-06d41ae723b2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1275.5</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>3</v>
+      </c>
+      <c r="H14" t="str">
+        <v>10</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Science curriculum materials</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N14" t="str">
+        <v>2025-04-29T05:32:00.000Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>d4f56g78-h90i-492d-efgh-i3456789012d</v>
+      </c>
+      <c r="B15" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="D15" t="str">
+        <v>f1150dec-f129-44b9-8159-1bf793beb7af</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2356</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>4</v>
+      </c>
+      <c r="H15" t="str">
+        <v>15</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Circuit boards and components</v>
+      </c>
+      <c r="K15" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="L15" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="M15" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N15" t="str">
+        <v>2025-04-29T05:33:00.000Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>e5g67h89-i01j-493e-fghi-j4567890123e</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Safety Equipment</v>
+      </c>
+      <c r="D16" t="str">
+        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
+      </c>
+      <c r="E16" t="str">
+        <v>789.95</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
+        <v>20</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Lab safety gear and PPE</v>
+      </c>
+      <c r="K16" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="L16" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="M16" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N16" t="str">
+        <v>2025-04-29T05:34:00.000Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>f6h78i90-j12k-494f-ghij-k5678901234f</v>
+      </c>
+      <c r="B17" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Software Licenses</v>
+      </c>
+      <c r="D17" t="str">
+        <v>7e41b567-1cdc-4e09-b690-5b2581cfef76</v>
+      </c>
+      <c r="E17" t="str">
+        <v>4500</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>25</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Annual software subscription</v>
+      </c>
+      <c r="K17" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N17" t="str">
+        <v>2025-04-29T05:35:00.000Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>g7i89j01-k23l-495g-hijk-l6789012345g</v>
+      </c>
+      <c r="B18" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Biology Supplies</v>
+      </c>
+      <c r="D18" t="str">
+        <v>a0e58df3-b7c5-4fc1-9843-12f8a395eb67</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1825.45</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <v>3</v>
+      </c>
+      <c r="H18" t="str">
+        <v>30</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Lab specimens and supplies</v>
+      </c>
+      <c r="K18" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="L18" t="str">
+        <v>4/1/25</v>
+      </c>
+      <c r="M18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N18" t="str">
+        <v>2025-04-29T05:36:00.000Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>h8j90k12-l34m-496h-ijkl-m7890123456h</v>
+      </c>
+      <c r="B19" t="str">
+        <v>4/1/25</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Grocery Items</v>
+      </c>
+      <c r="D19" t="str">
+        <v>b1f49e74-c8d6-42a3-b5e7-23a9c85f4b12</v>
+      </c>
+      <c r="E19" t="str">
+        <v>345.67</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <v>4</v>
+      </c>
+      <c r="H19" t="str">
+        <v>35</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Food for student event</v>
+      </c>
+      <c r="K19" t="str">
+        <v>4/1/25</v>
+      </c>
+      <c r="L19" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="M19" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N19" t="str">
+        <v>2025-04-29T05:37:00.000Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>i9k01l23-m45n-497i-jklm-n8901234567i</v>
+      </c>
+      <c r="B20" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Gas Supplies</v>
+      </c>
+      <c r="D20" t="str">
+        <v>c2d38f65-d9e7-43b4-a6f8-34b0d76e5c23</v>
+      </c>
+      <c r="E20" t="str">
+        <v>678.99</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2</v>
+      </c>
+      <c r="H20" t="str">
+        <v>40</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Laboratory gas refill</v>
+      </c>
+      <c r="K20" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N20" t="str">
+        <v>2025-04-29T05:38:00.000Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>j0l12m34-n56o-498j-klmn-o9012345678j</v>
+      </c>
+      <c r="B21" t="str">
+        <v>4/10/25</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Name Badges</v>
+      </c>
+      <c r="D21" t="str">
+        <v>d3e27g56-e0f8-44c5-b7g9-45c1e87f6d34</v>
+      </c>
+      <c r="E21" t="str">
+        <v>245.5</v>
+      </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>45</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Staff identification badges</v>
+      </c>
+      <c r="K21" t="str">
+        <v>4/10/25</v>
+      </c>
+      <c r="L21" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="M21" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N21" t="str">
+        <v>2025-04-29T05:39:00.000Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>k1m23n45-o67p-499k-lmno-p0123456789k</v>
+      </c>
+      <c r="B22" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Equipment Service</v>
+      </c>
+      <c r="D22" t="str">
+        <v>e4f16h47-f1g9-45d6-c8h0-56d2f98g7e45</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <v>3</v>
+      </c>
+      <c r="H22" t="str">
+        <v>50</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Annual maintenance contract</v>
+      </c>
+      <c r="K22" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="L22" t="str">
+        <v>4/20/25</v>
+      </c>
+      <c r="M22" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N22" t="str">
+        <v>2025-04-29T05:40:00.000Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>l2n34o56-p78q-500l-mnop-q1234567890l</v>
+      </c>
+      <c r="B23" t="str">
+        <v>1/5/25</v>
+      </c>
+      <c r="C23" t="str">
+        <v>H2GP Materials</v>
+      </c>
+      <c r="D23" t="str">
+        <v>f5g05i38-g2h0-46e7-d9i1-67e3g09h8f56</v>
+      </c>
+      <c r="E23" t="str">
+        <v>3750.25</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <v>4</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Hydrogen Grand Prix supplies</v>
+      </c>
+      <c r="K23" t="str">
+        <v>1/5/25</v>
+      </c>
+      <c r="L23" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="M23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N23" t="str">
+        <v>2025-04-29T05:41:00.000Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>m3o45p67-q89r-501m-nopq-r2345678901m</v>
+      </c>
+      <c r="B24" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Delivery Services</v>
+      </c>
+      <c r="D24" t="str">
+        <v>g6h94j29-h3i1-47f8-e0j2-78f4h10i9g67</v>
+      </c>
+      <c r="E24" t="str">
+        <v>89.5</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2</v>
+      </c>
+      <c r="H24" t="str">
+        <v>6</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Urgent materials delivery</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="L24" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="M24" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N24" t="str">
+        <v>2025-04-29T05:42:00.000Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>n4p56q78-r90s-502n-opqr-s3456789012n</v>
+      </c>
+      <c r="B25" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Classroom Supplies</v>
+      </c>
+      <c r="D25" t="str">
+        <v>h7i83k10-i4j2-48g9-f1k3-89g5i21j0h78</v>
+      </c>
+      <c r="E25" t="str">
+        <v>567.8</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <v>11</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J25" t="str">
+        <v>General teaching materials</v>
+      </c>
+      <c r="K25" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="L25" t="str">
+        <v>1/20/25</v>
+      </c>
+      <c r="M25" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N25" t="str">
+        <v>2025-04-29T05:43:00.000Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>o5q67r89-s01t-503o-pqrs-t4567890123o</v>
+      </c>
+      <c r="B26" t="str">
+        <v>1/20/25</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Staff Reimbursement</v>
+      </c>
+      <c r="D26" t="str">
+        <v>i8j72l01-j5k3-49h0-g2l4-90h6j32k1i89</v>
+      </c>
+      <c r="E26" t="str">
+        <v>1450</v>
+      </c>
+      <c r="F26" t="str">
+        <v>3</v>
+      </c>
+      <c r="G26" t="str">
+        <v>3</v>
+      </c>
+      <c r="H26" t="str">
+        <v>16</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Leanne salary payment</v>
+      </c>
+      <c r="K26" t="str">
+        <v>1/20/25</v>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N26" t="str">
+        <v>2025-04-29T05:44:00.000Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>p6r78s90-t12u-504p-qrst-u5678901234p</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1/25/25</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Survey Platform</v>
+      </c>
+      <c r="D27" t="str">
+        <v>j9k61m92-k6l4-50i1-h3m5-01i7k43l2j90</v>
+      </c>
+      <c r="E27" t="str">
+        <v>599.99</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>4</v>
+      </c>
+      <c r="H27" t="str">
+        <v>21</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Annual subscription</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1/25/25</v>
+      </c>
+      <c r="L27" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="M27" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N27" t="str">
+        <v>2025-04-29T05:45:00.000Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>q7s89t01-u23v-505q-rstu-v6789012345q</v>
+      </c>
+      <c r="B28" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Classroom Materials</v>
+      </c>
+      <c r="D28" t="str">
+        <v>k0l50n83-l7m5-51j2-i4n6-12j8l54m3k01</v>
+      </c>
+      <c r="E28" t="str">
+        <v>875.45</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2</v>
+      </c>
+      <c r="H28" t="str">
+        <v>26</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J28" t="str">
+        <v>STEM education kits</v>
+      </c>
+      <c r="K28" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2/5/25</v>
+      </c>
+      <c r="M28" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N28" t="str">
+        <v>2025-04-29T05:46:00.000Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>r8t90u12-v34w-506r-stuv-w7890123456r</v>
+      </c>
+      <c r="B29" t="str">
+        <v>2/5/25</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Lab Maintenance</v>
+      </c>
+      <c r="D29" t="str">
+        <v>l1m49o74-m8n6-52k3-j5o7-23k9m65n4l12</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2350</v>
+      </c>
+      <c r="F29" t="str">
+        <v>3</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>31</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Equipment servicing</v>
+      </c>
+      <c r="K29" t="str">
+        <v>2/5/25</v>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N29" t="str">
+        <v>2025-04-29T05:47:00.000Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>s9u01v23-w45x-507s-tuvw-x8901234567s</v>
+      </c>
+      <c r="B30" t="str">
+        <v>2/10/25</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Lab Supplies</v>
+      </c>
+      <c r="D30" t="str">
+        <v>m2n38p65-n9o7-53l4-k6p8-34l0n76o5m23</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1325.75</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <v>3</v>
+      </c>
+      <c r="H30" t="str">
+        <v>36</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Biology experiment materials</v>
+      </c>
+      <c r="K30" t="str">
+        <v>2/10/25</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="M30" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N30" t="str">
+        <v>2025-04-29T05:48:00.000Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>t0v12w34-x56y-508t-uvwx-y9012345678t</v>
+      </c>
+      <c r="B31" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Bus Transportation</v>
+      </c>
+      <c r="D31" t="str">
+        <v>n3o27q56-o0p8-54m5-l7q9-45m1o87p6n34</v>
+      </c>
+      <c r="E31" t="str">
+        <v>780</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <v>4</v>
+      </c>
+      <c r="H31" t="str">
+        <v>41</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Field trip transportation</v>
+      </c>
+      <c r="K31" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="M31" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N31" t="str">
+        <v>2025-04-29T05:49:00.000Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>u1w23x45-y67z-509u-vwxy-z0123456789u</v>
+      </c>
+      <c r="B32" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="C32" t="str">
+        <v>3D Printing Supplies</v>
+      </c>
+      <c r="D32" t="str">
+        <v>o4p16r47-p1q9-55n6-m8r0-56n2p98q7o45</v>
+      </c>
+      <c r="E32" t="str">
+        <v>425.99</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2</v>
+      </c>
+      <c r="H32" t="str">
+        <v>46</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Filament for 3D printers</v>
+      </c>
+      <c r="K32" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N32" t="str">
+        <v>2025-04-29T05:50:00.000Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>v2x34y56-z78a-510v-wxyz-a1234567890v</v>
+      </c>
+      <c r="B33" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3D Printer Maintenance</v>
+      </c>
+      <c r="D33" t="str">
+        <v>p5q05s38-q2r0-56o7-n9s1-67o3q09r8p56</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1250</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1</v>
+      </c>
+      <c r="H33" t="str">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Annual service contract</v>
+      </c>
+      <c r="K33" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="L33" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="M33" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N33" t="str">
+        <v>2025-04-29T05:51:00.000Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>w3y45z67-a89b-511w-xyza-b2345678901w</v>
+      </c>
+      <c r="B34" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Bus Reimbursement</v>
+      </c>
+      <c r="D34" t="str">
+        <v>q6r94t29-r3s1-57p8-o0t2-78p4r10s9q67</v>
+      </c>
+      <c r="E34" t="str">
+        <v>895</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <v>3</v>
+      </c>
+      <c r="H34" t="str">
+        <v>7</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Student excursion transport</v>
+      </c>
+      <c r="K34" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="L34" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="M34" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N34" t="str">
+        <v>2025-04-29T05:52:00.000Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>x4z56a78-b90c-512x-yzab-c3456789012x</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Lab Equipment Service</v>
+      </c>
+      <c r="D35" t="str">
+        <v>r7s83u10-s4t2-58q9-p1u3-89q5s21t0r78</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3</v>
+      </c>
+      <c r="G35" t="str">
+        <v>4</v>
+      </c>
+      <c r="H35" t="str">
+        <v>12</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Microscope calibration</v>
+      </c>
+      <c r="K35" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N35" t="str">
+        <v>2025-04-29T05:53:00.000Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>y5a67b89-c01d-513y-zabc-d4567890123y</v>
+      </c>
+      <c r="B36" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="C36" t="str">
+        <v>LEGO Workshop</v>
+      </c>
+      <c r="D36" t="str">
+        <v>s8t72v01-t5u3-59r0-q2v4-90r6t32u1s89</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F36" t="str">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2</v>
+      </c>
+      <c r="H36" t="str">
+        <v>17</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Ryan teaching sessions</v>
+      </c>
+      <c r="K36" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="L36" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="M36" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N36" t="str">
+        <v>2025-04-29T05:54:00.000Z</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>z6b78c90-d12e-514z-abcd-e5678901234z</v>
+      </c>
+      <c r="B37" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="C37" t="str">
+        <v>H2GP Registration</v>
+      </c>
+      <c r="D37" t="str">
+        <v>t9u61w92-u6v4-60s1-r3w5-01s7u43v2t90</v>
+      </c>
+      <c r="E37" t="str">
+        <v>750</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <v>22</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Competition entry fees</v>
+      </c>
+      <c r="K37" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="L37" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="M37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N37" t="str">
+        <v>2025-04-29T05:55:00.000Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>a7c89d01-e23f-515a-bcde-f6789012345a</v>
+      </c>
+      <c r="B38" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Workshop Supplies</v>
+      </c>
+      <c r="D38" t="str">
+        <v>u0v50x83-v7w5-61t2-s4x6-12t8v54w3u01</v>
+      </c>
+      <c r="E38" t="str">
+        <v>435.75</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3</v>
+      </c>
+      <c r="G38" t="str">
+        <v>3</v>
+      </c>
+      <c r="H38" t="str">
+        <v>27</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Materials for STEM lab</v>
+      </c>
+      <c r="K38" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N38" t="str">
+        <v>2025-04-29T05:56:00.000Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>b8d90e12-f34g-516b-cdef-g7890123456b</v>
+      </c>
+      <c r="B39" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Bus Transportation</v>
+      </c>
+      <c r="D39" t="str">
+        <v>v1w49y74-w8x6-62u3-t5y7-23u9w65x4v12</v>
+      </c>
+      <c r="E39" t="str">
+        <v>650</v>
+      </c>
+      <c r="F39" t="str">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>4</v>
+      </c>
+      <c r="H39" t="str">
+        <v>32</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Field trip to science museum</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="M39" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N39" t="str">
+        <v>2025-04-29T05:57:00.000Z</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>c9e01f23-g45h-517c-defg-h8901234567c</v>
+      </c>
+      <c r="B40" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Bus Reimbursement</v>
+      </c>
+      <c r="D40" t="str">
+        <v>w2x38z65-x9y7-63v4-u6z8-34v0x76y5w23</v>
+      </c>
+      <c r="E40" t="str">
+        <v>725.5</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <v>2</v>
+      </c>
+      <c r="H40" t="str">
+        <v>37</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Excursion transportation</v>
+      </c>
+      <c r="K40" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="L40" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="M40" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N40" t="str">
+        <v>2025-04-29T05:58:00.000Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>d0f12g34-h56i-518d-efgh-i9012345678d</v>
+      </c>
+      <c r="B41" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Bus Reimbursement</v>
+      </c>
+      <c r="D41" t="str">
+        <v>x3y27a56-y0z8-64w5-v7a9-45w1y87z6x34</v>
+      </c>
+      <c r="E41" t="str">
+        <v>800</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+      <c r="G41" t="str">
+        <v>1</v>
+      </c>
+      <c r="H41" t="str">
+        <v>42</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Student trip transportation</v>
+      </c>
+      <c r="K41" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N41" t="str">
+        <v>2025-04-29T05:59:00.000Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>e1g23h45-i67j-519e-fghi-j0123456789e</v>
+      </c>
+      <c r="B42" t="str">
+        <v>4/10/25</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Bus Reimbursement</v>
+      </c>
+      <c r="D42" t="str">
+        <v>y4z16b47-z1a9-65x6-w8b0-56x2z98a7y45</v>
+      </c>
+      <c r="E42" t="str">
+        <v>675.25</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>3</v>
+      </c>
+      <c r="H42" t="str">
+        <v>47</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Field trip expenses</v>
+      </c>
+      <c r="K42" t="str">
+        <v>4/10/25</v>
+      </c>
+      <c r="L42" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="M42" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N42" t="str">
+        <v>2025-04-29T06:00:00.000Z</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>f2h34i56-j78k-520f-ghij-k1234567890f</v>
+      </c>
+      <c r="B43" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Microbit Equipment</v>
+      </c>
+      <c r="D43" t="str">
+        <v>z5a05c38-a2b0-66y7-x9c1-67y3a09b8z56</v>
+      </c>
+      <c r="E43" t="str">
+        <v>1250.5</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <v>4</v>
+      </c>
+      <c r="H43" t="str">
+        <v>2</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Coding class materials</v>
+      </c>
+      <c r="K43" t="str">
+        <v>4/15/25</v>
+      </c>
+      <c r="L43" t="str">
+        <v>4/20/25</v>
+      </c>
+      <c r="M43" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N43" t="str">
+        <v>2025-04-29T06:01:00.000Z</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>g3i45j67-k89l-521g-hijk-l2345678901g</v>
+      </c>
+      <c r="B44" t="str">
+        <v>4/20/25</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Igloo Maintenance</v>
+      </c>
+      <c r="D44" t="str">
+        <v>a6b94d29-b3c1-67z8-y0d2-78z4b10c9a67</v>
+      </c>
+      <c r="E44" t="str">
+        <v>3500</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3</v>
+      </c>
+      <c r="G44" t="str">
+        <v>2</v>
+      </c>
+      <c r="H44" t="str">
+        <v>8</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Virtual reality system service</v>
+      </c>
+      <c r="K44" t="str">
+        <v>4/20/25</v>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N44" t="str">
+        <v>2025-04-29T06:02:00.000Z</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>h4j56k78-l90m-522h-ijkl-m3456789012h</v>
+      </c>
+      <c r="B45" t="str">
+        <v>1/5/25</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Online Services</v>
+      </c>
+      <c r="D45" t="str">
+        <v>b7c83e10-c4d2-68a9-z1e3-89a5c21d0b78</v>
+      </c>
+      <c r="E45" t="str">
+        <v>1899.99</v>
+      </c>
+      <c r="F45" t="str">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <v>13</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Learning management system</v>
+      </c>
+      <c r="K45" t="str">
+        <v>1/5/25</v>
+      </c>
+      <c r="L45" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="M45" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N45" t="str">
+        <v>2025-04-29T06:03:00.000Z</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>i5k67l89-m01n-523i-jklm-n4567890123i</v>
+      </c>
+      <c r="B46" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="C46" t="str">
+        <v>VR Subscription</v>
+      </c>
+      <c r="D46" t="str">
+        <v>c8d72f01-d5e3-69b0-a2f4-90b6d32e1c89</v>
+      </c>
+      <c r="E46" t="str">
+        <v>745</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <v>3</v>
+      </c>
+      <c r="H46" t="str">
+        <v>18</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Annual educational platform</v>
+      </c>
+      <c r="K46" t="str">
+        <v>1/10/25</v>
+      </c>
+      <c r="L46" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="M46" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N46" t="str">
+        <v>2025-04-29T06:04:00.000Z</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>j6l78m90-n12o-524j-klmn-o5678901234j</v>
+      </c>
+      <c r="B47" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Internet Services</v>
+      </c>
+      <c r="D47" t="str">
+        <v>d9e61g92-e6f4-70c1-b3g5-01c7e43f2d90</v>
+      </c>
+      <c r="E47" t="str">
+        <v>550</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3</v>
+      </c>
+      <c r="G47" t="str">
+        <v>4</v>
+      </c>
+      <c r="H47" t="str">
+        <v>23</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Monthly internet service</v>
+      </c>
+      <c r="K47" t="str">
+        <v>1/15/25</v>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N47" t="str">
+        <v>2025-04-29T06:05:00.000Z</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>k7m89n01-o23p-525k-lmno-p6789012345k</v>
+      </c>
+      <c r="B48" t="str">
+        <v>1/20/25</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Office Supplies</v>
+      </c>
+      <c r="D48" t="str">
+        <v>e0f50h83-f7g5-71d2-c4h6-12d8f54g3e01</v>
+      </c>
+      <c r="E48" t="str">
+        <v>375.65</v>
+      </c>
+      <c r="F48" t="str">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <v>2</v>
+      </c>
+      <c r="H48" t="str">
+        <v>28</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Classroom stationery</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1/20/25</v>
+      </c>
+      <c r="L48" t="str">
+        <v>1/25/25</v>
+      </c>
+      <c r="M48" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N48" t="str">
+        <v>2025-04-29T06:06:00.000Z</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>l8n90o12-p34q-526l-mnop-q7890123456l</v>
+      </c>
+      <c r="B49" t="str">
+        <v>1/25/25</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Stationery Order</v>
+      </c>
+      <c r="D49" t="str">
+        <v>f1g49i74-g8h6-72e3-d5i7-23e9g65h4f12</v>
+      </c>
+      <c r="E49" t="str">
+        <v>625.99</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <v>1</v>
+      </c>
+      <c r="H49" t="str">
+        <v>33</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J49" t="str">
+        <v>School supplies bulk order</v>
+      </c>
+      <c r="K49" t="str">
+        <v>1/25/25</v>
+      </c>
+      <c r="L49" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="M49" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N49" t="str">
+        <v>2025-04-29T06:07:00.000Z</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>m9o01p23-q45r-527m-nopq-r8901234567m</v>
+      </c>
+      <c r="B50" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Electronics Components</v>
+      </c>
+      <c r="D50" t="str">
+        <v>g2h38j65-h9i7-73f4-e6j8-34f0h76i5g23</v>
+      </c>
+      <c r="E50" t="str">
+        <v>1875.45</v>
+      </c>
+      <c r="F50" t="str">
+        <v>3</v>
+      </c>
+      <c r="G50" t="str">
+        <v>3</v>
+      </c>
+      <c r="H50" t="str">
+        <v>38</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J50" t="str">
+        <v>STEM project materials</v>
+      </c>
+      <c r="K50" t="str">
+        <v>1/30/25</v>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N50" t="str">
+        <v>2025-04-29T06:08:00.000Z</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>n0p12q34-r56s-528n-opqr-s9012345678n</v>
+      </c>
+      <c r="B51" t="str">
+        <v>2/5/25</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Travel Arrangements</v>
+      </c>
+      <c r="D51" t="str">
+        <v>h3i27k56-i0j8-74g5-f7k9-45g1i87j6h34</v>
+      </c>
+      <c r="E51" t="str">
+        <v>3250</v>
+      </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <v>4</v>
+      </c>
+      <c r="H51" t="str">
+        <v>43</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Staff conference travel</v>
+      </c>
+      <c r="K51" t="str">
+        <v>2/5/25</v>
+      </c>
+      <c r="L51" t="str">
+        <v>2/10/25</v>
+      </c>
+      <c r="M51" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N51" t="str">
+        <v>2025-04-29T06:09:00.000Z</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>o1q23r45-s67t-529o-pqrs-t0123456789o</v>
+      </c>
+      <c r="B52" t="str">
+        <v>2/10/25</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Waste Management</v>
+      </c>
+      <c r="D52" t="str">
+        <v>i4j16l47-j1k9-75h6-g8l0-56h2j98k7i45</v>
+      </c>
+      <c r="E52" t="str">
+        <v>325</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <v>2</v>
+      </c>
+      <c r="H52" t="str">
+        <v>48</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Mini bins service</v>
+      </c>
+      <c r="K52" t="str">
+        <v>2/10/25</v>
+      </c>
+      <c r="L52" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="M52" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N52" t="str">
+        <v>2025-04-29T06:10:00.000Z</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>p2r34s56-t78u-530p-qrst-u1234567890p</v>
+      </c>
+      <c r="B53" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Electronic Parts</v>
+      </c>
+      <c r="D53" t="str">
+        <v>j5k05m38-k2l0-76i7-h9m1-67i3k09l8j56</v>
+      </c>
+      <c r="E53" t="str">
+        <v>950.75</v>
+      </c>
+      <c r="F53" t="str">
+        <v>3</v>
+      </c>
+      <c r="G53" t="str">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <v>3</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Robotics class components</v>
+      </c>
+      <c r="K53" t="str">
+        <v>2/15/25</v>
+      </c>
+      <c r="L53" t="str">
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N53" t="str">
+        <v>2025-04-29T06:11:00.000Z</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>q3s45t67-u89v-531q-rstu-v2345678901q</v>
+      </c>
+      <c r="B54" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Acrylic Materials</v>
+      </c>
+      <c r="D54" t="str">
+        <v>k6l94n29-l3m1-77j8-i0n2-78j4l10m9k67</v>
+      </c>
+      <c r="E54" t="str">
+        <v>785.25</v>
+      </c>
+      <c r="F54" t="str">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <v>3</v>
+      </c>
+      <c r="H54" t="str">
+        <v>9</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Laser cutting supplies</v>
+      </c>
+      <c r="K54" t="str">
+        <v>2/20/25</v>
+      </c>
+      <c r="L54" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="M54" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N54" t="str">
+        <v>2025-04-29T06:12:00.000Z</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>r4t56u78-v90w-532r-stuv-w3456789012r</v>
+      </c>
+      <c r="B55" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Catering Services</v>
+      </c>
+      <c r="D55" t="str">
+        <v>l7m83o10-m4n2-78k9-j1o3-89k5m21n0l78</v>
+      </c>
+      <c r="E55" t="str">
+        <v>1250</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <v>4</v>
+      </c>
+      <c r="H55" t="str">
+        <v>14</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Staff development day</v>
+      </c>
+      <c r="K55" t="str">
+        <v>2/25/25</v>
+      </c>
+      <c r="L55" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="M55" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N55" t="str">
+        <v>2025-04-29T06:13:00.000Z</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>s5u67v89-w01x-533s-tuvw-x4567890123s</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Computer Accessories</v>
+      </c>
+      <c r="D56" t="str">
+        <v>62c58ce4-0382-4f95-8924-8ee8089b5782</v>
+      </c>
+      <c r="E56" t="str">
+        <v>875.5</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3</v>
+      </c>
+      <c r="G56" t="str">
+        <v>2</v>
+      </c>
+      <c r="H56" t="str">
+        <v>19</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Peripherals for labs</v>
+      </c>
+      <c r="K56" t="str">
+        <v>3/1/25</v>
+      </c>
+      <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N56" t="str">
+        <v>2025-04-29T06:14:00.000Z</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>t6v78w90-x12y-534t-uvwx-y5678901234t</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Lab Chemicals</v>
+      </c>
+      <c r="D57" t="str">
+        <v>fdef454f-e745-4ca4-aeeb-8b1e6e4f00df</v>
+      </c>
+      <c r="E57" t="str">
+        <v>1500</v>
+      </c>
+      <c r="F57" t="str">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <v>1</v>
+      </c>
+      <c r="H57" t="str">
+        <v>24</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Chemistry experiments</v>
+      </c>
+      <c r="K57" t="str">
+        <v>3/5/25</v>
+      </c>
+      <c r="L57" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="M57" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N57" t="str">
+        <v>2025-04-29T06:15:00.000Z</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>u7w89x01-y23z-535u-vwxy-z6789012345u</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Textbooks</v>
+      </c>
+      <c r="D58" t="str">
+        <v>664f112c-366a-44da-b9d4-06d41ae723b2</v>
+      </c>
+      <c r="E58" t="str">
+        <v>2250.75</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <v>3</v>
+      </c>
+      <c r="H58" t="str">
+        <v>29</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Science curriculum books</v>
+      </c>
+      <c r="K58" t="str">
+        <v>3/10/25</v>
+      </c>
+      <c r="L58" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="M58" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N58" t="str">
+        <v>2025-04-29T06:16:00.000Z</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>v8x90y12-z34a-536v-wxyz-a7890123456v</v>
+      </c>
+      <c r="B59" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Audio Equipment</v>
+      </c>
+      <c r="D59" t="str">
+        <v>f1150dec-f129-44b9-8159-1bf793beb7af</v>
+      </c>
+      <c r="E59" t="str">
+        <v>1875.99</v>
+      </c>
+      <c r="F59" t="str">
+        <v>3</v>
+      </c>
+      <c r="G59" t="str">
+        <v>4</v>
+      </c>
+      <c r="H59" t="str">
+        <v>34</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Committed</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Classroom speakers</v>
+      </c>
+      <c r="K59" t="str">
+        <v>3/15/25</v>
+      </c>
+      <c r="L59" t="str">
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N59" t="str">
+        <v>2025-04-29T06:17:00.000Z</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>w9y01z23-a45b-537w-xyza-b8901234567w</v>
+      </c>
+      <c r="B60" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Protective Equipment</v>
+      </c>
+      <c r="D60" t="str">
+        <v>b7906afb-23a1-47fe-96c1-28c59e18d691</v>
+      </c>
+      <c r="E60" t="str">
+        <v>675.45</v>
+      </c>
+      <c r="F60" t="str">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <v>2</v>
+      </c>
+      <c r="H60" t="str">
+        <v>39</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Lab safety gear</v>
+      </c>
+      <c r="K60" t="str">
+        <v>3/20/25</v>
+      </c>
+      <c r="L60" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="M60" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N60" t="str">
+        <v>2025-04-29T06:18:00.000Z</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>x0z12a34-b56c-538x-yzab-c9012345678x</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Software License</v>
+      </c>
+      <c r="D61" t="str">
+        <v>7e41b567-1cdc-4e09-b690-5b2581cfef76</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2999</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <v>1</v>
+      </c>
+      <c r="H61" t="str">
+        <v>44</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Design software annual fee</v>
+      </c>
+      <c r="K61" t="str">
+        <v>3/25/25</v>
+      </c>
+      <c r="L61" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="M61" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N61" t="str">
+        <v>2025-04-29T06:19:00.000Z</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>y1a23b45-c67d-539y-zabc-d0123456789y</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Science Specimens</v>
+      </c>
+      <c r="D62" t="str">
+        <v>a0e58df3-b7c5-4fc1-9843-12f8a395eb67</v>
+      </c>
+      <c r="E62" t="str">
+        <v>1450.5</v>
+      </c>
+      <c r="F62" t="str">
+        <v>3</v>
+      </c>
+      <c r="G62" t="str">
+        <v>3</v>
+      </c>
+      <c r="H62" t="str">
+        <v>49</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Biology lab materials</v>
+      </c>
+      <c r="K62" t="str">
+        <v>3/30/25</v>
+      </c>
+      <c r="L62" t="str">
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N62" t="str">
+        <v>2025-04-29T06:20:00.000Z</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>z2b34c56-d78e-540z-abcd-e1234567890z</v>
+      </c>
+      <c r="B63" t="str">
+        <v>4/1/25</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Grocery Items</v>
+      </c>
+      <c r="D63" t="str">
+        <v>b1f49e74-c8d6-42a3-b5e7-23a9c85f4b12</v>
+      </c>
+      <c r="E63" t="str">
+        <v>325.75</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <v>4</v>
+      </c>
+      <c r="H63" t="str">
+        <v>4</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Student event refreshments</v>
+      </c>
+      <c r="K63" t="str">
+        <v>4/1/25</v>
+      </c>
+      <c r="L63" t="str">
+        <v>4/5/25</v>
+      </c>
+      <c r="M63" t="str">
+        <v>admin</v>
+      </c>
+      <c r="N63" t="str">
+        <v>2025-04-29T06:21:00.000Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N63"/>
   </ignoredErrors>
 </worksheet>
 </file>
